--- a/2017/2017_Acceptance_Testing_Master.xlsx
+++ b/2017/2017_Acceptance_Testing_Master.xlsx
@@ -1,32 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-010\Desktop\Git\development_playground\2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1905" windowWidth="11400" windowHeight="2280"/>
+    <workbookView xWindow="2610" yWindow="1905" windowWidth="11400" windowHeight="2280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HW Setup" sheetId="3" r:id="rId1"/>
     <sheet name="Acceptance Test (Single)" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId3"/>
+    <sheet name="Acceptance Test (Single) (2)" sheetId="16" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Acceptance Test (Single)'!$K$1:$K$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Acceptance Test (Single) (2)'!$K$1:$K$212</definedName>
+    <definedName name="abcd" localSheetId="2">#REF!</definedName>
     <definedName name="abcd">#REF!</definedName>
+    <definedName name="CreatedBy" localSheetId="2">#REF!</definedName>
     <definedName name="CreatedBy">#REF!</definedName>
+    <definedName name="Priority" localSheetId="2">#REF!</definedName>
     <definedName name="Priority">#REF!</definedName>
+    <definedName name="ReviewStatus" localSheetId="2">#REF!</definedName>
     <definedName name="ReviewStatus">#REF!</definedName>
+    <definedName name="Sheet1" localSheetId="2">#REF!</definedName>
     <definedName name="Sheet1">#REF!</definedName>
+    <definedName name="ss" localSheetId="2">#REF!</definedName>
     <definedName name="ss">#REF!</definedName>
+    <definedName name="TestType" localSheetId="2">#REF!</definedName>
     <definedName name="TestType">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="141">
   <si>
     <t>Software Configuration</t>
   </si>
@@ -1573,7 +1587,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1983,6 +1997,246 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="44" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="44" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="44" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1992,36 +2246,6 @@
     <xf numFmtId="0" fontId="36" fillId="45" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="46" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2031,177 +2255,9 @@
     <xf numFmtId="0" fontId="35" fillId="46" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2223,59 +2279,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="34" fillId="44" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="44" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="44" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="44" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -2342,7 +2359,17 @@
     <cellStyle name="Total" xfId="35" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="32" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2350,6 +2377,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2375,11 +2472,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2395,11 +2492,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2415,31 +2512,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2635,6 +2712,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2642,7 +2722,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2939,11 +3019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94390272"/>
-        <c:axId val="85725120"/>
+        <c:axId val="355843488"/>
+        <c:axId val="355843880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94390272"/>
+        <c:axId val="355843488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +3043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85725120"/>
+        <c:crossAx val="355843880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2971,7 +3051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85725120"/>
+        <c:axId val="355843880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -3012,7 +3092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94390272"/>
+        <c:crossAx val="355843488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -3049,7 +3129,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3309,11 +3389,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="94425088"/>
-        <c:axId val="85726848"/>
+        <c:axId val="357368192"/>
+        <c:axId val="357368584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94425088"/>
+        <c:axId val="357368192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,7 +3413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85726848"/>
+        <c:crossAx val="357368584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3341,7 +3421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85726848"/>
+        <c:axId val="357368584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -3382,7 +3462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94425088"/>
+        <c:crossAx val="357368192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -3684,7 +3764,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3719,7 +3799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3930,7 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -3946,14 +4026,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -3961,212 +4041,212 @@
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:14" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="194" t="s">
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="196"/>
+      <c r="J5" s="209"/>
+      <c r="K5" s="209"/>
+      <c r="L5" s="209"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="210"/>
     </row>
     <row r="6" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="159" t="s">
+      <c r="B6" s="193"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="160"/>
-      <c r="K6" s="189" t="s">
+      <c r="J6" s="193"/>
+      <c r="K6" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
-      <c r="N6" s="191"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="216"/>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="147"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="146" t="s">
+      <c r="B7" s="185"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="147"/>
-      <c r="K7" s="203" t="s">
+      <c r="J7" s="185"/>
+      <c r="K7" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="205"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="219"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="181" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="171"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="151" t="s">
+      <c r="C8" s="186"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="152"/>
-      <c r="K8" s="197" t="s">
+      <c r="J8" s="177"/>
+      <c r="K8" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="199"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="203"/>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
+      <c r="A9" s="182"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="150"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="166"/>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
+      <c r="A10" s="182"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="176"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
     </row>
     <row r="11" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
+      <c r="A11" s="182"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="210"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="206"/>
     </row>
     <row r="12" spans="1:14" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="170"/>
+      <c r="A12" s="183"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="208">
+      <c r="C12" s="204">
         <v>2155</v>
       </c>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="210"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="206"/>
     </row>
     <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="211"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="150"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="166"/>
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="166"/>
     </row>
     <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="148" t="s">
+      <c r="B15" s="185"/>
+      <c r="C15" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="150"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="166"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="155"/>
+      <c r="A16" s="176"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="180"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="179" t="s">
+      <c r="A17" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="181"/>
-      <c r="K17" s="179" t="s">
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="191"/>
+      <c r="K17" s="189" t="s">
         <v>140</v>
       </c>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="181"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="190"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="191"/>
       <c r="Q17" s="139"/>
       <c r="R17" s="139"/>
       <c r="S17" s="139"/>
@@ -4174,36 +4254,36 @@
       <c r="U17" s="139"/>
       <c r="V17" s="139"/>
       <c r="W17" s="139"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="187"/>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="220"/>
+      <c r="Z17" s="220"/>
+      <c r="AA17" s="220"/>
+      <c r="AB17" s="220"/>
+      <c r="AC17" s="220"/>
     </row>
     <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="160"/>
-      <c r="C18" s="161" t="s">
+      <c r="B18" s="193"/>
+      <c r="C18" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="163"/>
-      <c r="K18" s="159" t="s">
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="196"/>
+      <c r="K18" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="L18" s="160"/>
-      <c r="M18" s="189" t="s">
+      <c r="L18" s="193"/>
+      <c r="M18" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="N18" s="190"/>
-      <c r="O18" s="190"/>
-      <c r="P18" s="191"/>
+      <c r="N18" s="215"/>
+      <c r="O18" s="215"/>
+      <c r="P18" s="216"/>
       <c r="Q18" s="136"/>
       <c r="R18" s="140"/>
       <c r="S18" s="140"/>
@@ -4211,36 +4291,36 @@
       <c r="U18" s="140"/>
       <c r="V18" s="140"/>
       <c r="W18" s="140"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="186"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
+      <c r="X18" s="159"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
     </row>
     <row r="19" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="165" t="s">
+      <c r="B19" s="185"/>
+      <c r="C19" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="167"/>
-      <c r="K19" s="151" t="s">
+      <c r="D19" s="199"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="200"/>
+      <c r="K19" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="152"/>
-      <c r="M19" s="197" t="s">
+      <c r="L19" s="177"/>
+      <c r="M19" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="N19" s="198"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="199"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="203"/>
       <c r="Q19" s="136"/>
       <c r="R19" s="137"/>
       <c r="S19" s="137"/>
@@ -4248,28 +4328,28 @@
       <c r="U19" s="137"/>
       <c r="V19" s="137"/>
       <c r="W19" s="137"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="193"/>
-      <c r="AA19" s="193"/>
-      <c r="AB19" s="193"/>
-      <c r="AC19" s="193"/>
+      <c r="X19" s="159"/>
+      <c r="Y19" s="159"/>
+      <c r="Z19" s="161"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="161"/>
+      <c r="AC19" s="161"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="168" t="s">
+      <c r="A20" s="181" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="171">
+      <c r="C20" s="186">
         <v>2</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="188"/>
       <c r="P20" s="141"/>
       <c r="Q20" s="136"/>
       <c r="R20" s="137"/>
@@ -4278,26 +4358,26 @@
       <c r="U20" s="137"/>
       <c r="V20" s="137"/>
       <c r="W20" s="137"/>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="186"/>
-      <c r="Z20" s="192"/>
-      <c r="AA20" s="192"/>
-      <c r="AB20" s="192"/>
-      <c r="AC20" s="192"/>
+      <c r="X20" s="159"/>
+      <c r="Y20" s="159"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="150"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="166"/>
       <c r="P21" s="141"/>
       <c r="Q21" s="30"/>
       <c r="R21" s="138"/>
@@ -4314,18 +4394,18 @@
       <c r="AC21" s="31"/>
     </row>
     <row r="22" spans="1:29" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="176"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="169"/>
       <c r="U22" s="142"/>
       <c r="V22" s="142"/>
       <c r="W22" s="142"/>
@@ -4337,14 +4417,14 @@
       <c r="AC22" s="31"/>
     </row>
     <row r="23" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="169"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="184"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="172"/>
       <c r="U23" s="138"/>
       <c r="V23" s="138"/>
       <c r="W23" s="138"/>
@@ -4356,14 +4436,14 @@
       <c r="AC23" s="31"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="170"/>
+      <c r="A24" s="183"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="184"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="172"/>
       <c r="U24" s="138"/>
       <c r="V24" s="138"/>
       <c r="W24" s="138"/>
@@ -4375,26 +4455,26 @@
       <c r="AC24" s="31"/>
     </row>
     <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="148" t="s">
+      <c r="B25" s="185"/>
+      <c r="C25" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="150"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="166"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="159"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="163"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
       <c r="Z25" s="31"/>
@@ -4403,22 +4483,22 @@
       <c r="AC25" s="31"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="155"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
+      <c r="A26" s="176"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="180"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="163"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
@@ -4437,102 +4517,102 @@
       <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="181"/>
-      <c r="P28" s="187"/>
-      <c r="Q28" s="187"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="191"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="220"/>
+      <c r="S28" s="220"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="220"/>
+      <c r="V28" s="220"/>
+      <c r="W28" s="220"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="220"/>
+      <c r="Z28" s="220"/>
+      <c r="AA28" s="220"/>
+      <c r="AB28" s="220"/>
+      <c r="AC28" s="220"/>
     </row>
     <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="159" t="s">
+      <c r="A29" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="161" t="s">
+      <c r="B29" s="193"/>
+      <c r="C29" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="163"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="188"/>
-      <c r="S29" s="188"/>
-      <c r="T29" s="188"/>
-      <c r="U29" s="188"/>
-      <c r="V29" s="188"/>
-      <c r="W29" s="188"/>
-      <c r="X29" s="186"/>
-      <c r="Y29" s="186"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="185"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="185"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="196"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="221"/>
+      <c r="S29" s="221"/>
+      <c r="T29" s="221"/>
+      <c r="U29" s="221"/>
+      <c r="V29" s="221"/>
+      <c r="W29" s="221"/>
+      <c r="X29" s="159"/>
+      <c r="Y29" s="159"/>
+      <c r="Z29" s="163"/>
+      <c r="AA29" s="163"/>
+      <c r="AB29" s="163"/>
+      <c r="AC29" s="163"/>
     </row>
     <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="147"/>
-      <c r="C30" s="165" t="s">
+      <c r="B30" s="185"/>
+      <c r="C30" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="167"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="215"/>
-      <c r="S30" s="215"/>
-      <c r="T30" s="215"/>
-      <c r="U30" s="215"/>
-      <c r="V30" s="215"/>
-      <c r="W30" s="215"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="193"/>
-      <c r="AA30" s="193"/>
-      <c r="AB30" s="193"/>
-      <c r="AC30" s="193"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="200"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="160"/>
+      <c r="S30" s="160"/>
+      <c r="T30" s="160"/>
+      <c r="U30" s="160"/>
+      <c r="V30" s="160"/>
+      <c r="W30" s="160"/>
+      <c r="X30" s="159"/>
+      <c r="Y30" s="159"/>
+      <c r="Z30" s="161"/>
+      <c r="AA30" s="161"/>
+      <c r="AB30" s="161"/>
+      <c r="AC30" s="161"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="181" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="171">
+      <c r="C31" s="186">
         <v>1</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="173"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="188"/>
       <c r="P31" s="133"/>
       <c r="Q31" s="129"/>
       <c r="R31" s="132"/>
@@ -4541,26 +4621,26 @@
       <c r="U31" s="132"/>
       <c r="V31" s="132"/>
       <c r="W31" s="132"/>
-      <c r="X31" s="186"/>
-      <c r="Y31" s="186"/>
-      <c r="Z31" s="192"/>
-      <c r="AA31" s="192"/>
-      <c r="AB31" s="192"/>
-      <c r="AC31" s="192"/>
+      <c r="X31" s="159"/>
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="169"/>
+      <c r="A32" s="182"/>
       <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="150"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="166"/>
       <c r="P32" s="133"/>
       <c r="Q32" s="30"/>
       <c r="R32" s="130"/>
@@ -4577,25 +4657,25 @@
       <c r="AC32" s="31"/>
     </row>
     <row r="33" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="169"/>
+      <c r="A33" s="182"/>
       <c r="B33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="174" t="s">
+      <c r="C33" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="176"/>
-      <c r="J33" s="213" t="s">
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="169"/>
+      <c r="J33" s="157" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="213"/>
-      <c r="L33" s="213"/>
-      <c r="M33" s="213"/>
-      <c r="N33" s="213"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
       <c r="P33" s="133"/>
       <c r="Q33" s="30"/>
       <c r="R33" s="131"/>
@@ -4612,18 +4692,18 @@
       <c r="AC33" s="31"/>
     </row>
     <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
+      <c r="A34" s="182"/>
       <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="182" t="s">
+      <c r="C34" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="184"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="172"/>
       <c r="T34" s="130"/>
       <c r="U34" s="130"/>
       <c r="V34" s="130"/>
@@ -4636,14 +4716,14 @@
       <c r="AC34" s="31"/>
     </row>
     <row r="35" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="170"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="182"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="184"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="172"/>
       <c r="T35" s="130"/>
       <c r="U35" s="130"/>
       <c r="V35" s="130"/>
@@ -4656,18 +4736,18 @@
       <c r="AC35" s="31"/>
     </row>
     <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="147"/>
-      <c r="C36" s="148" t="s">
+      <c r="B36" s="185"/>
+      <c r="C36" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="150"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="166"/>
       <c r="T36" s="130"/>
       <c r="U36" s="130"/>
       <c r="V36" s="130"/>
@@ -4680,22 +4760,22 @@
       <c r="AC36" s="31"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="151"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="155"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="185"/>
-      <c r="S37" s="185"/>
-      <c r="T37" s="185"/>
-      <c r="U37" s="185"/>
-      <c r="V37" s="185"/>
-      <c r="W37" s="185"/>
+      <c r="A37" s="176"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="180"/>
+      <c r="P37" s="159"/>
+      <c r="Q37" s="159"/>
+      <c r="R37" s="163"/>
+      <c r="S37" s="163"/>
+      <c r="T37" s="163"/>
+      <c r="U37" s="163"/>
+      <c r="V37" s="163"/>
+      <c r="W37" s="163"/>
       <c r="X37" s="31"/>
       <c r="Y37" s="31"/>
       <c r="Z37" s="31"/>
@@ -4704,14 +4784,14 @@
       <c r="AC37" s="31"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P38" s="186"/>
-      <c r="Q38" s="186"/>
-      <c r="R38" s="185"/>
-      <c r="S38" s="185"/>
-      <c r="T38" s="185"/>
-      <c r="U38" s="185"/>
-      <c r="V38" s="185"/>
-      <c r="W38" s="185"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="163"/>
+      <c r="S38" s="163"/>
+      <c r="T38" s="163"/>
+      <c r="U38" s="163"/>
+      <c r="V38" s="163"/>
+      <c r="W38" s="163"/>
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
       <c r="Z38" s="31"/>
@@ -4720,16 +4800,16 @@
       <c r="AC38" s="31"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="179" t="s">
+      <c r="A39" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="180"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="181"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="190"/>
+      <c r="H39" s="191"/>
       <c r="P39" s="134"/>
       <c r="Q39" s="134"/>
       <c r="R39" s="135"/>
@@ -4746,18 +4826,18 @@
       <c r="AC39" s="31"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="159" t="s">
+      <c r="A40" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="160"/>
-      <c r="C40" s="161" t="s">
+      <c r="B40" s="193"/>
+      <c r="C40" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="163"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="196"/>
       <c r="P40" s="134"/>
       <c r="Q40" s="134"/>
       <c r="R40" s="135"/>
@@ -4774,18 +4854,18 @@
       <c r="AC40" s="31"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="177" t="s">
+      <c r="A41" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="165" t="s">
+      <c r="B41" s="185"/>
+      <c r="C41" s="198" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="166"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="167"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="199"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="200"/>
       <c r="P41" s="134"/>
       <c r="Q41" s="134"/>
       <c r="R41" s="135"/>
@@ -4802,20 +4882,20 @@
       <c r="AC41" s="31"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="168" t="s">
+      <c r="A42" s="181" t="s">
         <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="171">
+      <c r="C42" s="186">
         <v>1</v>
       </c>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="173"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="188"/>
       <c r="P42" s="134"/>
       <c r="Q42" s="134"/>
       <c r="R42" s="135"/>
@@ -4832,18 +4912,18 @@
       <c r="AC42" s="31"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="169"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="148" t="s">
+      <c r="C43" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="150"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="166"/>
       <c r="P43" s="134"/>
       <c r="Q43" s="134"/>
       <c r="R43" s="135"/>
@@ -4860,25 +4940,25 @@
       <c r="AC43" s="31"/>
     </row>
     <row r="44" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="169"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="176"/>
-      <c r="J44" s="213" t="s">
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="169"/>
+      <c r="J44" s="157" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="213"/>
-      <c r="L44" s="213"/>
-      <c r="M44" s="213"/>
-      <c r="N44" s="213"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="157"/>
       <c r="P44" s="134"/>
       <c r="Q44" s="134"/>
       <c r="R44" s="135"/>
@@ -4895,18 +4975,18 @@
       <c r="AC44" s="31"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="169"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
-      <c r="H45" s="184"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="172"/>
       <c r="P45" s="134"/>
       <c r="Q45" s="134"/>
       <c r="R45" s="135"/>
@@ -4923,14 +5003,14 @@
       <c r="AC45" s="31"/>
     </row>
     <row r="46" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="170"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="184"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="172"/>
       <c r="P46" s="134"/>
       <c r="Q46" s="134"/>
       <c r="R46" s="135"/>
@@ -4947,18 +5027,18 @@
       <c r="AC46" s="31"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="146" t="s">
+      <c r="A47" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="148" t="s">
+      <c r="B47" s="185"/>
+      <c r="C47" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="150"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="166"/>
       <c r="P47" s="134"/>
       <c r="Q47" s="134"/>
       <c r="R47" s="135"/>
@@ -4975,14 +5055,14 @@
       <c r="AC47" s="31"/>
     </row>
     <row r="48" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="151"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="155"/>
+      <c r="A48" s="176"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="180"/>
       <c r="P48" s="134"/>
       <c r="Q48" s="134"/>
       <c r="R48" s="135"/>
@@ -5015,16 +5095,16 @@
       <c r="AC49" s="31"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="180"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="181"/>
+      <c r="B50" s="190"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="190"/>
+      <c r="H50" s="191"/>
       <c r="P50" s="134"/>
       <c r="Q50" s="134"/>
       <c r="R50" s="135"/>
@@ -5041,18 +5121,18 @@
       <c r="AC50" s="31"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="159" t="s">
+      <c r="A51" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="160"/>
-      <c r="C51" s="161" t="s">
+      <c r="B51" s="193"/>
+      <c r="C51" s="194" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="163"/>
+      <c r="D51" s="195"/>
+      <c r="E51" s="195"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="196"/>
       <c r="P51" s="134"/>
       <c r="Q51" s="134"/>
       <c r="R51" s="135"/>
@@ -5069,18 +5149,18 @@
       <c r="AC51" s="31"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="177" t="s">
+      <c r="A52" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="147"/>
-      <c r="C52" s="165" t="s">
+      <c r="B52" s="185"/>
+      <c r="C52" s="198" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="166"/>
-      <c r="E52" s="166"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="167"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="199"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="200"/>
       <c r="P52" s="134"/>
       <c r="Q52" s="134"/>
       <c r="R52" s="135"/>
@@ -5097,20 +5177,20 @@
       <c r="AC52" s="31"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="168" t="s">
+      <c r="A53" s="181" t="s">
         <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="171">
+      <c r="C53" s="186">
         <v>1</v>
       </c>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="173"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="187"/>
+      <c r="H53" s="188"/>
       <c r="P53" s="134"/>
       <c r="Q53" s="134"/>
       <c r="R53" s="135"/>
@@ -5127,18 +5207,18 @@
       <c r="AC53" s="31"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="169"/>
+      <c r="A54" s="182"/>
       <c r="B54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="148" t="s">
+      <c r="C54" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="150"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="166"/>
       <c r="P54" s="134"/>
       <c r="Q54" s="134"/>
       <c r="R54" s="135"/>
@@ -5155,25 +5235,25 @@
       <c r="AC54" s="31"/>
     </row>
     <row r="55" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="169"/>
+      <c r="A55" s="182"/>
       <c r="B55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="174" t="s">
+      <c r="C55" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="175"/>
-      <c r="E55" s="175"/>
-      <c r="F55" s="175"/>
-      <c r="G55" s="175"/>
-      <c r="H55" s="176"/>
-      <c r="J55" s="214" t="s">
+      <c r="D55" s="168"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="169"/>
+      <c r="J55" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="K55" s="214"/>
-      <c r="L55" s="214"/>
-      <c r="M55" s="214"/>
-      <c r="N55" s="214"/>
+      <c r="K55" s="158"/>
+      <c r="L55" s="158"/>
+      <c r="M55" s="158"/>
+      <c r="N55" s="158"/>
       <c r="P55" s="134"/>
       <c r="Q55" s="134"/>
       <c r="R55" s="135"/>
@@ -5190,18 +5270,18 @@
       <c r="AC55" s="31"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="169"/>
+      <c r="A56" s="182"/>
       <c r="B56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="183"/>
-      <c r="E56" s="183"/>
-      <c r="F56" s="183"/>
-      <c r="G56" s="183"/>
-      <c r="H56" s="184"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="171"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="172"/>
       <c r="P56" s="134"/>
       <c r="Q56" s="134"/>
       <c r="R56" s="135"/>
@@ -5218,14 +5298,14 @@
       <c r="AC56" s="31"/>
     </row>
     <row r="57" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="170"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="182"/>
-      <c r="D57" s="183"/>
-      <c r="E57" s="183"/>
-      <c r="F57" s="183"/>
-      <c r="G57" s="183"/>
-      <c r="H57" s="184"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="171"/>
+      <c r="F57" s="171"/>
+      <c r="G57" s="171"/>
+      <c r="H57" s="172"/>
       <c r="P57" s="134"/>
       <c r="Q57" s="134"/>
       <c r="R57" s="135"/>
@@ -5242,18 +5322,18 @@
       <c r="AC57" s="31"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="146" t="s">
+      <c r="A58" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="148" t="s">
+      <c r="B58" s="185"/>
+      <c r="C58" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="150"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="166"/>
       <c r="P58" s="134"/>
       <c r="Q58" s="134"/>
       <c r="R58" s="135"/>
@@ -5270,14 +5350,14 @@
       <c r="AC58" s="31"/>
     </row>
     <row r="59" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="151"/>
-      <c r="B59" s="152"/>
-      <c r="C59" s="153"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="155"/>
+      <c r="A59" s="176"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="178"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="179"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="179"/>
+      <c r="H59" s="180"/>
       <c r="P59" s="134"/>
       <c r="Q59" s="134"/>
       <c r="R59" s="135"/>
@@ -5342,393 +5422,393 @@
       <c r="AC62" s="31"/>
     </row>
     <row r="63" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="157"/>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="158"/>
-      <c r="J63" s="156" t="s">
+      <c r="B63" s="227"/>
+      <c r="C63" s="227"/>
+      <c r="D63" s="227"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="227"/>
+      <c r="H63" s="228"/>
+      <c r="J63" s="226" t="s">
         <v>124</v>
       </c>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
-      <c r="P63" s="157"/>
-      <c r="Q63" s="158"/>
+      <c r="K63" s="227"/>
+      <c r="L63" s="227"/>
+      <c r="M63" s="227"/>
+      <c r="N63" s="227"/>
+      <c r="O63" s="227"/>
+      <c r="P63" s="227"/>
+      <c r="Q63" s="228"/>
       <c r="R63" s="135"/>
-      <c r="S63" s="156" t="s">
+      <c r="S63" s="226" t="s">
         <v>127</v>
       </c>
-      <c r="T63" s="157"/>
-      <c r="U63" s="157"/>
-      <c r="V63" s="157"/>
-      <c r="W63" s="157"/>
-      <c r="X63" s="157"/>
-      <c r="Y63" s="157"/>
-      <c r="Z63" s="158"/>
+      <c r="T63" s="227"/>
+      <c r="U63" s="227"/>
+      <c r="V63" s="227"/>
+      <c r="W63" s="227"/>
+      <c r="X63" s="227"/>
+      <c r="Y63" s="227"/>
+      <c r="Z63" s="228"/>
       <c r="AA63" s="31"/>
       <c r="AB63" s="31"/>
       <c r="AC63" s="31"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="159" t="s">
+      <c r="A64" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="160"/>
-      <c r="C64" s="161"/>
-      <c r="D64" s="162"/>
-      <c r="E64" s="162"/>
-      <c r="F64" s="162"/>
-      <c r="G64" s="162"/>
-      <c r="H64" s="163"/>
-      <c r="J64" s="159" t="s">
+      <c r="B64" s="193"/>
+      <c r="C64" s="194"/>
+      <c r="D64" s="195"/>
+      <c r="E64" s="195"/>
+      <c r="F64" s="195"/>
+      <c r="G64" s="195"/>
+      <c r="H64" s="196"/>
+      <c r="J64" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="K64" s="160"/>
-      <c r="L64" s="161" t="s">
+      <c r="K64" s="193"/>
+      <c r="L64" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="M64" s="162"/>
-      <c r="N64" s="162"/>
-      <c r="O64" s="162"/>
-      <c r="P64" s="162"/>
-      <c r="Q64" s="163"/>
+      <c r="M64" s="195"/>
+      <c r="N64" s="195"/>
+      <c r="O64" s="195"/>
+      <c r="P64" s="195"/>
+      <c r="Q64" s="196"/>
       <c r="R64" s="135"/>
-      <c r="S64" s="159" t="s">
+      <c r="S64" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="T64" s="160"/>
-      <c r="U64" s="161"/>
-      <c r="V64" s="162"/>
-      <c r="W64" s="162"/>
-      <c r="X64" s="162"/>
-      <c r="Y64" s="162"/>
-      <c r="Z64" s="163"/>
+      <c r="T64" s="193"/>
+      <c r="U64" s="194"/>
+      <c r="V64" s="195"/>
+      <c r="W64" s="195"/>
+      <c r="X64" s="195"/>
+      <c r="Y64" s="195"/>
+      <c r="Z64" s="196"/>
       <c r="AA64" s="31"/>
       <c r="AB64" s="31"/>
       <c r="AC64" s="31"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="177" t="s">
+      <c r="A65" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="147"/>
-      <c r="C65" s="165" t="s">
+      <c r="B65" s="185"/>
+      <c r="C65" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="166"/>
-      <c r="E65" s="166"/>
-      <c r="F65" s="166"/>
-      <c r="G65" s="166"/>
-      <c r="H65" s="167"/>
-      <c r="J65" s="164" t="s">
+      <c r="D65" s="199"/>
+      <c r="E65" s="199"/>
+      <c r="F65" s="199"/>
+      <c r="G65" s="199"/>
+      <c r="H65" s="200"/>
+      <c r="J65" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="K65" s="147"/>
-      <c r="L65" s="165" t="s">
+      <c r="K65" s="185"/>
+      <c r="L65" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="M65" s="166"/>
-      <c r="N65" s="166"/>
-      <c r="O65" s="166"/>
-      <c r="P65" s="166"/>
-      <c r="Q65" s="167"/>
+      <c r="M65" s="199"/>
+      <c r="N65" s="199"/>
+      <c r="O65" s="199"/>
+      <c r="P65" s="199"/>
+      <c r="Q65" s="200"/>
       <c r="R65" s="135"/>
-      <c r="S65" s="164" t="s">
+      <c r="S65" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="T65" s="147"/>
-      <c r="U65" s="165" t="s">
+      <c r="T65" s="185"/>
+      <c r="U65" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="V65" s="166"/>
-      <c r="W65" s="166"/>
-      <c r="X65" s="166"/>
-      <c r="Y65" s="166"/>
-      <c r="Z65" s="167"/>
+      <c r="V65" s="199"/>
+      <c r="W65" s="199"/>
+      <c r="X65" s="199"/>
+      <c r="Y65" s="199"/>
+      <c r="Z65" s="200"/>
       <c r="AA65" s="31"/>
       <c r="AB65" s="31"/>
       <c r="AC65" s="31"/>
     </row>
     <row r="66" spans="1:29" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="168" t="s">
+      <c r="A66" s="181" t="s">
         <v>98</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="171" t="s">
+      <c r="C66" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="172"/>
-      <c r="E66" s="172"/>
-      <c r="F66" s="172"/>
-      <c r="G66" s="172"/>
-      <c r="H66" s="173"/>
-      <c r="J66" s="168" t="s">
+      <c r="D66" s="187"/>
+      <c r="E66" s="187"/>
+      <c r="F66" s="187"/>
+      <c r="G66" s="187"/>
+      <c r="H66" s="188"/>
+      <c r="J66" s="181" t="s">
         <v>98</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L66" s="171" t="s">
+      <c r="L66" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="M66" s="172"/>
-      <c r="N66" s="172"/>
-      <c r="O66" s="172"/>
-      <c r="P66" s="172"/>
-      <c r="Q66" s="173"/>
+      <c r="M66" s="187"/>
+      <c r="N66" s="187"/>
+      <c r="O66" s="187"/>
+      <c r="P66" s="187"/>
+      <c r="Q66" s="188"/>
       <c r="R66" s="135"/>
-      <c r="S66" s="168" t="s">
+      <c r="S66" s="181" t="s">
         <v>98</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="U66" s="171" t="s">
+      <c r="U66" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="V66" s="172"/>
-      <c r="W66" s="172"/>
-      <c r="X66" s="172"/>
-      <c r="Y66" s="172"/>
-      <c r="Z66" s="173"/>
+      <c r="V66" s="187"/>
+      <c r="W66" s="187"/>
+      <c r="X66" s="187"/>
+      <c r="Y66" s="187"/>
+      <c r="Z66" s="188"/>
       <c r="AA66" s="31"/>
       <c r="AB66" s="31"/>
       <c r="AC66" s="31"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="169"/>
+      <c r="A67" s="182"/>
       <c r="B67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="148" t="s">
+      <c r="C67" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="149"/>
-      <c r="H67" s="150"/>
-      <c r="J67" s="169"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="165"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="166"/>
+      <c r="J67" s="182"/>
       <c r="K67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="148" t="s">
+      <c r="L67" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="M67" s="149"/>
-      <c r="N67" s="149"/>
-      <c r="O67" s="149"/>
-      <c r="P67" s="149"/>
-      <c r="Q67" s="150"/>
+      <c r="M67" s="165"/>
+      <c r="N67" s="165"/>
+      <c r="O67" s="165"/>
+      <c r="P67" s="165"/>
+      <c r="Q67" s="166"/>
       <c r="R67" s="135"/>
-      <c r="S67" s="169"/>
+      <c r="S67" s="182"/>
       <c r="T67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="U67" s="148" t="s">
+      <c r="U67" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="V67" s="149"/>
-      <c r="W67" s="149"/>
-      <c r="X67" s="149"/>
-      <c r="Y67" s="149"/>
-      <c r="Z67" s="150"/>
+      <c r="V67" s="165"/>
+      <c r="W67" s="165"/>
+      <c r="X67" s="165"/>
+      <c r="Y67" s="165"/>
+      <c r="Z67" s="166"/>
       <c r="AA67" s="31"/>
       <c r="AB67" s="31"/>
       <c r="AC67" s="31"/>
     </row>
     <row r="68" spans="1:29" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="169"/>
+      <c r="A68" s="182"/>
       <c r="B68" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="174" t="s">
+      <c r="C68" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="175"/>
-      <c r="E68" s="175"/>
-      <c r="F68" s="175"/>
-      <c r="G68" s="175"/>
-      <c r="H68" s="176"/>
-      <c r="J68" s="169"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="169"/>
+      <c r="J68" s="182"/>
       <c r="K68" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L68" s="174" t="s">
+      <c r="L68" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="M68" s="175"/>
-      <c r="N68" s="175"/>
-      <c r="O68" s="175"/>
-      <c r="P68" s="175"/>
-      <c r="Q68" s="176"/>
+      <c r="M68" s="168"/>
+      <c r="N68" s="168"/>
+      <c r="O68" s="168"/>
+      <c r="P68" s="168"/>
+      <c r="Q68" s="169"/>
       <c r="R68" s="135"/>
-      <c r="S68" s="169"/>
+      <c r="S68" s="182"/>
       <c r="T68" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="U68" s="174" t="s">
+      <c r="U68" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="V68" s="175"/>
-      <c r="W68" s="175"/>
-      <c r="X68" s="175"/>
-      <c r="Y68" s="175"/>
-      <c r="Z68" s="176"/>
+      <c r="V68" s="168"/>
+      <c r="W68" s="168"/>
+      <c r="X68" s="168"/>
+      <c r="Y68" s="168"/>
+      <c r="Z68" s="169"/>
       <c r="AA68" s="31"/>
       <c r="AB68" s="31"/>
       <c r="AC68" s="31"/>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A69" s="169"/>
+      <c r="A69" s="182"/>
       <c r="B69" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="143" t="s">
+      <c r="C69" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="145"/>
-      <c r="J69" s="169"/>
+      <c r="D69" s="224"/>
+      <c r="E69" s="224"/>
+      <c r="F69" s="224"/>
+      <c r="G69" s="224"/>
+      <c r="H69" s="225"/>
+      <c r="J69" s="182"/>
       <c r="K69" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L69" s="143" t="s">
+      <c r="L69" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="M69" s="144"/>
-      <c r="N69" s="144"/>
-      <c r="O69" s="144"/>
-      <c r="P69" s="144"/>
-      <c r="Q69" s="145"/>
+      <c r="M69" s="224"/>
+      <c r="N69" s="224"/>
+      <c r="O69" s="224"/>
+      <c r="P69" s="224"/>
+      <c r="Q69" s="225"/>
       <c r="R69" s="135"/>
-      <c r="S69" s="169"/>
+      <c r="S69" s="182"/>
       <c r="T69" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="U69" s="143" t="s">
+      <c r="U69" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="V69" s="144"/>
-      <c r="W69" s="144"/>
-      <c r="X69" s="144"/>
-      <c r="Y69" s="144"/>
-      <c r="Z69" s="145"/>
+      <c r="V69" s="224"/>
+      <c r="W69" s="224"/>
+      <c r="X69" s="224"/>
+      <c r="Y69" s="224"/>
+      <c r="Z69" s="225"/>
       <c r="AA69" s="31"/>
       <c r="AB69" s="31"/>
       <c r="AC69" s="31"/>
     </row>
     <row r="70" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="170"/>
+      <c r="A70" s="183"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="143"/>
-      <c r="D70" s="144"/>
-      <c r="E70" s="144"/>
-      <c r="F70" s="144"/>
-      <c r="G70" s="144"/>
-      <c r="H70" s="145"/>
-      <c r="J70" s="170"/>
+      <c r="C70" s="223"/>
+      <c r="D70" s="224"/>
+      <c r="E70" s="224"/>
+      <c r="F70" s="224"/>
+      <c r="G70" s="224"/>
+      <c r="H70" s="225"/>
+      <c r="J70" s="183"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="143"/>
-      <c r="M70" s="144"/>
-      <c r="N70" s="144"/>
-      <c r="O70" s="144"/>
-      <c r="P70" s="144"/>
-      <c r="Q70" s="145"/>
+      <c r="L70" s="223"/>
+      <c r="M70" s="224"/>
+      <c r="N70" s="224"/>
+      <c r="O70" s="224"/>
+      <c r="P70" s="224"/>
+      <c r="Q70" s="225"/>
       <c r="R70" s="135"/>
-      <c r="S70" s="170"/>
+      <c r="S70" s="183"/>
       <c r="T70" s="3"/>
-      <c r="U70" s="143"/>
-      <c r="V70" s="144"/>
-      <c r="W70" s="144"/>
-      <c r="X70" s="144"/>
-      <c r="Y70" s="144"/>
-      <c r="Z70" s="145"/>
+      <c r="U70" s="223"/>
+      <c r="V70" s="224"/>
+      <c r="W70" s="224"/>
+      <c r="X70" s="224"/>
+      <c r="Y70" s="224"/>
+      <c r="Z70" s="225"/>
       <c r="AA70" s="31"/>
       <c r="AB70" s="31"/>
       <c r="AC70" s="31"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="146" t="s">
+      <c r="A71" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="147"/>
-      <c r="C71" s="148" t="s">
+      <c r="B71" s="185"/>
+      <c r="C71" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149"/>
-      <c r="F71" s="149"/>
-      <c r="G71" s="149"/>
-      <c r="H71" s="150"/>
-      <c r="J71" s="146" t="s">
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="166"/>
+      <c r="J71" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="147"/>
-      <c r="L71" s="148" t="s">
+      <c r="K71" s="185"/>
+      <c r="L71" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="M71" s="149"/>
-      <c r="N71" s="149"/>
-      <c r="O71" s="149"/>
-      <c r="P71" s="149"/>
-      <c r="Q71" s="150"/>
+      <c r="M71" s="165"/>
+      <c r="N71" s="165"/>
+      <c r="O71" s="165"/>
+      <c r="P71" s="165"/>
+      <c r="Q71" s="166"/>
       <c r="R71" s="135"/>
-      <c r="S71" s="146" t="s">
+      <c r="S71" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="T71" s="147"/>
-      <c r="U71" s="148" t="s">
+      <c r="T71" s="185"/>
+      <c r="U71" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="V71" s="149"/>
-      <c r="W71" s="149"/>
-      <c r="X71" s="149"/>
-      <c r="Y71" s="149"/>
-      <c r="Z71" s="150"/>
+      <c r="V71" s="165"/>
+      <c r="W71" s="165"/>
+      <c r="X71" s="165"/>
+      <c r="Y71" s="165"/>
+      <c r="Z71" s="166"/>
       <c r="AA71" s="31"/>
       <c r="AB71" s="31"/>
       <c r="AC71" s="31"/>
     </row>
     <row r="72" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="151"/>
-      <c r="B72" s="152"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="155"/>
-      <c r="J72" s="151"/>
-      <c r="K72" s="152"/>
-      <c r="L72" s="153"/>
-      <c r="M72" s="154"/>
-      <c r="N72" s="154"/>
-      <c r="O72" s="154"/>
-      <c r="P72" s="154"/>
-      <c r="Q72" s="155"/>
+      <c r="A72" s="176"/>
+      <c r="B72" s="177"/>
+      <c r="C72" s="178"/>
+      <c r="D72" s="179"/>
+      <c r="E72" s="179"/>
+      <c r="F72" s="179"/>
+      <c r="G72" s="179"/>
+      <c r="H72" s="180"/>
+      <c r="J72" s="176"/>
+      <c r="K72" s="177"/>
+      <c r="L72" s="178"/>
+      <c r="M72" s="179"/>
+      <c r="N72" s="179"/>
+      <c r="O72" s="179"/>
+      <c r="P72" s="179"/>
+      <c r="Q72" s="180"/>
       <c r="R72" s="135"/>
-      <c r="S72" s="151"/>
-      <c r="T72" s="152"/>
-      <c r="U72" s="153"/>
-      <c r="V72" s="154"/>
-      <c r="W72" s="154"/>
-      <c r="X72" s="154"/>
-      <c r="Y72" s="154"/>
-      <c r="Z72" s="155"/>
+      <c r="S72" s="176"/>
+      <c r="T72" s="177"/>
+      <c r="U72" s="178"/>
+      <c r="V72" s="179"/>
+      <c r="W72" s="179"/>
+      <c r="X72" s="179"/>
+      <c r="Y72" s="179"/>
+      <c r="Z72" s="180"/>
       <c r="AA72" s="31"/>
       <c r="AB72" s="31"/>
       <c r="AC72" s="31"/>
@@ -5750,26 +5830,26 @@
       <c r="AC73" s="31"/>
     </row>
     <row r="74" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="156" t="s">
+      <c r="A74" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="157"/>
-      <c r="C74" s="157"/>
-      <c r="D74" s="157"/>
-      <c r="E74" s="157"/>
-      <c r="F74" s="157"/>
-      <c r="G74" s="157"/>
-      <c r="H74" s="158"/>
-      <c r="J74" s="156" t="s">
+      <c r="B74" s="227"/>
+      <c r="C74" s="227"/>
+      <c r="D74" s="227"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
+      <c r="G74" s="227"/>
+      <c r="H74" s="228"/>
+      <c r="J74" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="K74" s="157"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="157"/>
-      <c r="N74" s="157"/>
-      <c r="O74" s="157"/>
-      <c r="P74" s="157"/>
-      <c r="Q74" s="158"/>
+      <c r="K74" s="227"/>
+      <c r="L74" s="227"/>
+      <c r="M74" s="227"/>
+      <c r="N74" s="227"/>
+      <c r="O74" s="227"/>
+      <c r="P74" s="227"/>
+      <c r="Q74" s="228"/>
       <c r="R74" s="135"/>
       <c r="S74" s="135"/>
       <c r="T74" s="135"/>
@@ -5784,26 +5864,26 @@
       <c r="AC74" s="31"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A75" s="159" t="s">
+      <c r="A75" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="B75" s="160"/>
-      <c r="C75" s="161"/>
-      <c r="D75" s="162"/>
-      <c r="E75" s="162"/>
-      <c r="F75" s="162"/>
-      <c r="G75" s="162"/>
-      <c r="H75" s="163"/>
-      <c r="J75" s="159" t="s">
+      <c r="B75" s="193"/>
+      <c r="C75" s="194"/>
+      <c r="D75" s="195"/>
+      <c r="E75" s="195"/>
+      <c r="F75" s="195"/>
+      <c r="G75" s="195"/>
+      <c r="H75" s="196"/>
+      <c r="J75" s="192" t="s">
         <v>47</v>
       </c>
-      <c r="K75" s="160"/>
-      <c r="L75" s="161"/>
-      <c r="M75" s="162"/>
-      <c r="N75" s="162"/>
-      <c r="O75" s="162"/>
-      <c r="P75" s="162"/>
-      <c r="Q75" s="163"/>
+      <c r="K75" s="193"/>
+      <c r="L75" s="194"/>
+      <c r="M75" s="195"/>
+      <c r="N75" s="195"/>
+      <c r="O75" s="195"/>
+      <c r="P75" s="195"/>
+      <c r="Q75" s="196"/>
       <c r="R75" s="135"/>
       <c r="S75" s="135"/>
       <c r="T75" s="135"/>
@@ -5818,30 +5898,30 @@
       <c r="AC75" s="31"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A76" s="177" t="s">
+      <c r="A76" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="147"/>
-      <c r="C76" s="165" t="s">
+      <c r="B76" s="185"/>
+      <c r="C76" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="D76" s="166"/>
-      <c r="E76" s="166"/>
-      <c r="F76" s="166"/>
-      <c r="G76" s="166"/>
-      <c r="H76" s="167"/>
-      <c r="J76" s="164" t="s">
+      <c r="D76" s="199"/>
+      <c r="E76" s="199"/>
+      <c r="F76" s="199"/>
+      <c r="G76" s="199"/>
+      <c r="H76" s="200"/>
+      <c r="J76" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="178"/>
-      <c r="L76" s="166" t="s">
+      <c r="K76" s="229"/>
+      <c r="L76" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="M76" s="166"/>
-      <c r="N76" s="166"/>
-      <c r="O76" s="166"/>
-      <c r="P76" s="166"/>
-      <c r="Q76" s="167"/>
+      <c r="M76" s="199"/>
+      <c r="N76" s="199"/>
+      <c r="O76" s="199"/>
+      <c r="P76" s="199"/>
+      <c r="Q76" s="200"/>
       <c r="R76" s="135"/>
       <c r="S76" s="135"/>
       <c r="T76" s="135"/>
@@ -5856,34 +5936,34 @@
       <c r="AC76" s="31"/>
     </row>
     <row r="77" spans="1:29" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="168" t="s">
+      <c r="A77" s="181" t="s">
         <v>98</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="171" t="s">
+      <c r="C77" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="172"/>
-      <c r="E77" s="172"/>
-      <c r="F77" s="172"/>
-      <c r="G77" s="172"/>
-      <c r="H77" s="173"/>
-      <c r="J77" s="168" t="s">
+      <c r="D77" s="187"/>
+      <c r="E77" s="187"/>
+      <c r="F77" s="187"/>
+      <c r="G77" s="187"/>
+      <c r="H77" s="188"/>
+      <c r="J77" s="181" t="s">
         <v>98</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L77" s="171" t="s">
+      <c r="L77" s="186" t="s">
         <v>102</v>
       </c>
-      <c r="M77" s="172"/>
-      <c r="N77" s="172"/>
-      <c r="O77" s="172"/>
-      <c r="P77" s="172"/>
-      <c r="Q77" s="173"/>
+      <c r="M77" s="187"/>
+      <c r="N77" s="187"/>
+      <c r="O77" s="187"/>
+      <c r="P77" s="187"/>
+      <c r="Q77" s="188"/>
       <c r="R77" s="135"/>
       <c r="S77" s="135"/>
       <c r="T77" s="135"/>
@@ -5898,30 +5978,30 @@
       <c r="AC77" s="31"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="169"/>
+      <c r="A78" s="182"/>
       <c r="B78" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="148" t="s">
+      <c r="C78" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="149"/>
-      <c r="E78" s="149"/>
-      <c r="F78" s="149"/>
-      <c r="G78" s="149"/>
-      <c r="H78" s="150"/>
-      <c r="J78" s="169"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="165"/>
+      <c r="F78" s="165"/>
+      <c r="G78" s="165"/>
+      <c r="H78" s="166"/>
+      <c r="J78" s="182"/>
       <c r="K78" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L78" s="148" t="s">
+      <c r="L78" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="M78" s="149"/>
-      <c r="N78" s="149"/>
-      <c r="O78" s="149"/>
-      <c r="P78" s="149"/>
-      <c r="Q78" s="150"/>
+      <c r="M78" s="165"/>
+      <c r="N78" s="165"/>
+      <c r="O78" s="165"/>
+      <c r="P78" s="165"/>
+      <c r="Q78" s="166"/>
       <c r="R78" s="135"/>
       <c r="S78" s="135"/>
       <c r="T78" s="135"/>
@@ -5936,30 +6016,30 @@
       <c r="AC78" s="31"/>
     </row>
     <row r="79" spans="1:29" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="169"/>
+      <c r="A79" s="182"/>
       <c r="B79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="174" t="s">
+      <c r="C79" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="175"/>
-      <c r="E79" s="175"/>
-      <c r="F79" s="175"/>
-      <c r="G79" s="175"/>
-      <c r="H79" s="176"/>
-      <c r="J79" s="169"/>
+      <c r="D79" s="168"/>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168"/>
+      <c r="G79" s="168"/>
+      <c r="H79" s="169"/>
+      <c r="J79" s="182"/>
       <c r="K79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L79" s="174" t="s">
+      <c r="L79" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="M79" s="175"/>
-      <c r="N79" s="175"/>
-      <c r="O79" s="175"/>
-      <c r="P79" s="175"/>
-      <c r="Q79" s="176"/>
+      <c r="M79" s="168"/>
+      <c r="N79" s="168"/>
+      <c r="O79" s="168"/>
+      <c r="P79" s="168"/>
+      <c r="Q79" s="169"/>
       <c r="R79" s="135"/>
       <c r="S79" s="135"/>
       <c r="T79" s="135"/>
@@ -5974,30 +6054,30 @@
       <c r="AC79" s="31"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="169"/>
+      <c r="A80" s="182"/>
       <c r="B80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C80" s="143" t="s">
+      <c r="C80" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="D80" s="144"/>
-      <c r="E80" s="144"/>
-      <c r="F80" s="144"/>
-      <c r="G80" s="144"/>
-      <c r="H80" s="145"/>
-      <c r="J80" s="169"/>
+      <c r="D80" s="224"/>
+      <c r="E80" s="224"/>
+      <c r="F80" s="224"/>
+      <c r="G80" s="224"/>
+      <c r="H80" s="225"/>
+      <c r="J80" s="182"/>
       <c r="K80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L80" s="143" t="s">
+      <c r="L80" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="M80" s="144"/>
-      <c r="N80" s="144"/>
-      <c r="O80" s="144"/>
-      <c r="P80" s="144"/>
-      <c r="Q80" s="145"/>
+      <c r="M80" s="224"/>
+      <c r="N80" s="224"/>
+      <c r="O80" s="224"/>
+      <c r="P80" s="224"/>
+      <c r="Q80" s="225"/>
       <c r="R80" s="135"/>
       <c r="S80" s="135"/>
       <c r="T80" s="135"/>
@@ -6012,22 +6092,22 @@
       <c r="AC80" s="31"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="170"/>
+      <c r="A81" s="183"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="143"/>
-      <c r="D81" s="144"/>
-      <c r="E81" s="144"/>
-      <c r="F81" s="144"/>
-      <c r="G81" s="144"/>
-      <c r="H81" s="145"/>
-      <c r="J81" s="170"/>
+      <c r="C81" s="223"/>
+      <c r="D81" s="224"/>
+      <c r="E81" s="224"/>
+      <c r="F81" s="224"/>
+      <c r="G81" s="224"/>
+      <c r="H81" s="225"/>
+      <c r="J81" s="183"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="143"/>
-      <c r="M81" s="144"/>
-      <c r="N81" s="144"/>
-      <c r="O81" s="144"/>
-      <c r="P81" s="144"/>
-      <c r="Q81" s="145"/>
+      <c r="L81" s="223"/>
+      <c r="M81" s="224"/>
+      <c r="N81" s="224"/>
+      <c r="O81" s="224"/>
+      <c r="P81" s="224"/>
+      <c r="Q81" s="225"/>
       <c r="R81" s="135"/>
       <c r="S81" s="135"/>
       <c r="T81" s="135"/>
@@ -6042,30 +6122,30 @@
       <c r="AC81" s="31"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A82" s="146" t="s">
+      <c r="A82" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="147"/>
-      <c r="C82" s="148" t="s">
+      <c r="B82" s="185"/>
+      <c r="C82" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="149"/>
-      <c r="E82" s="149"/>
-      <c r="F82" s="149"/>
-      <c r="G82" s="149"/>
-      <c r="H82" s="150"/>
-      <c r="J82" s="146" t="s">
+      <c r="D82" s="165"/>
+      <c r="E82" s="165"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="165"/>
+      <c r="H82" s="166"/>
+      <c r="J82" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="K82" s="147"/>
-      <c r="L82" s="148" t="s">
+      <c r="K82" s="185"/>
+      <c r="L82" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="M82" s="149"/>
-      <c r="N82" s="149"/>
-      <c r="O82" s="149"/>
-      <c r="P82" s="149"/>
-      <c r="Q82" s="150"/>
+      <c r="M82" s="165"/>
+      <c r="N82" s="165"/>
+      <c r="O82" s="165"/>
+      <c r="P82" s="165"/>
+      <c r="Q82" s="166"/>
       <c r="R82" s="135"/>
       <c r="S82" s="135"/>
       <c r="T82" s="135"/>
@@ -6080,22 +6160,22 @@
       <c r="AC82" s="31"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="151"/>
-      <c r="B83" s="152"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="155"/>
-      <c r="J83" s="151"/>
-      <c r="K83" s="152"/>
-      <c r="L83" s="153"/>
-      <c r="M83" s="154"/>
-      <c r="N83" s="154"/>
-      <c r="O83" s="154"/>
-      <c r="P83" s="154"/>
-      <c r="Q83" s="155"/>
+      <c r="A83" s="176"/>
+      <c r="B83" s="177"/>
+      <c r="C83" s="178"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="179"/>
+      <c r="G83" s="179"/>
+      <c r="H83" s="180"/>
+      <c r="J83" s="176"/>
+      <c r="K83" s="177"/>
+      <c r="L83" s="178"/>
+      <c r="M83" s="179"/>
+      <c r="N83" s="179"/>
+      <c r="O83" s="179"/>
+      <c r="P83" s="179"/>
+      <c r="Q83" s="180"/>
       <c r="R83" s="135"/>
       <c r="S83" s="135"/>
       <c r="T83" s="135"/>
@@ -6142,14 +6222,14 @@
       <c r="AC85" s="31"/>
     </row>
     <row r="86" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="206" t="s">
+      <c r="A86" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="207"/>
-      <c r="C86" s="207"/>
-      <c r="D86" s="207"/>
-      <c r="E86" s="207"/>
-      <c r="F86" s="212"/>
+      <c r="B86" s="174"/>
+      <c r="C86" s="174"/>
+      <c r="D86" s="174"/>
+      <c r="E86" s="174"/>
+      <c r="F86" s="175"/>
     </row>
     <row r="87" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I87"/>
@@ -6320,19 +6400,167 @@
     </row>
   </sheetData>
   <mergeCells count="198">
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="J44:N44"/>
-    <mergeCell ref="J55:N55"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AC31"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:W38"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:Q82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:Q83"/>
+    <mergeCell ref="S63:Z63"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="U64:Z64"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:Z65"/>
+    <mergeCell ref="S66:S70"/>
+    <mergeCell ref="U66:Z66"/>
+    <mergeCell ref="U67:Z67"/>
+    <mergeCell ref="U68:Z68"/>
+    <mergeCell ref="U69:Z69"/>
+    <mergeCell ref="U70:Z70"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="U71:Z71"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="U72:Z72"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="J77:J81"/>
+    <mergeCell ref="L77:Q77"/>
+    <mergeCell ref="L78:Q78"/>
+    <mergeCell ref="L79:Q79"/>
+    <mergeCell ref="L80:Q80"/>
+    <mergeCell ref="L81:Q81"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="L64:Q64"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:Q72"/>
+    <mergeCell ref="J74:Q74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:Q75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:Q76"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:Q65"/>
+    <mergeCell ref="J66:J70"/>
+    <mergeCell ref="L66:Q66"/>
+    <mergeCell ref="L67:Q67"/>
+    <mergeCell ref="L68:Q68"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="L70:Q70"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="P28:W28"/>
+    <mergeCell ref="X28:AC28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
     <mergeCell ref="C34:H34"/>
@@ -6357,167 +6585,19 @@
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:H47"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X17:AC17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="P28:W28"/>
-    <mergeCell ref="X28:AC28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AC29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:Q65"/>
-    <mergeCell ref="J66:J70"/>
-    <mergeCell ref="L66:Q66"/>
-    <mergeCell ref="L67:Q67"/>
-    <mergeCell ref="L68:Q68"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="J77:J81"/>
-    <mergeCell ref="L77:Q77"/>
-    <mergeCell ref="L78:Q78"/>
-    <mergeCell ref="L79:Q79"/>
-    <mergeCell ref="L80:Q80"/>
-    <mergeCell ref="L81:Q81"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="L64:Q64"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:Q72"/>
-    <mergeCell ref="J74:Q74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:Q75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:Q76"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="L70:Q70"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:Q82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:Q83"/>
-    <mergeCell ref="S63:Z63"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="U64:Z64"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="U65:Z65"/>
-    <mergeCell ref="S66:S70"/>
-    <mergeCell ref="U66:Z66"/>
-    <mergeCell ref="U67:Z67"/>
-    <mergeCell ref="U68:Z68"/>
-    <mergeCell ref="U69:Z69"/>
-    <mergeCell ref="U70:Z70"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="U71:Z71"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="U72:Z72"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="J63:Q63"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="J55:N55"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AC31"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:W37"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6532,7 +6612,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6599,29 +6679,29 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219"/>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="226"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="147"/>
       <c r="F3" s="114" t="s">
         <v>40</v>
       </c>
@@ -6637,7 +6717,7 @@
       <c r="J3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="234"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="10" t="s">
         <v>84</v>
       </c>
@@ -6649,9 +6729,9 @@
       <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="227"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="114" t="s">
         <v>41</v>
       </c>
@@ -6667,7 +6747,7 @@
       <c r="J4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="235"/>
+      <c r="K4" s="151"/>
       <c r="L4" s="10" t="s">
         <v>84</v>
       </c>
@@ -6679,9 +6759,9 @@
       <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="239"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="227"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="114" t="s">
         <v>42</v>
       </c>
@@ -6697,7 +6777,7 @@
       <c r="J5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="235"/>
+      <c r="K5" s="151"/>
       <c r="L5" s="10" t="s">
         <v>84</v>
       </c>
@@ -6709,9 +6789,9 @@
       <c r="B6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="239"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="227"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="114" t="s">
         <v>43</v>
       </c>
@@ -6727,7 +6807,7 @@
       <c r="J6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="234"/>
+      <c r="K6" s="150"/>
       <c r="L6" s="10" t="s">
         <v>84</v>
       </c>
@@ -6739,9 +6819,9 @@
       <c r="B7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="227"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="148"/>
       <c r="F7" s="114" t="s">
         <v>44</v>
       </c>
@@ -6757,7 +6837,7 @@
       <c r="J7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="235"/>
+      <c r="K7" s="151"/>
       <c r="L7" s="10" t="s">
         <v>84</v>
       </c>
@@ -6769,9 +6849,9 @@
       <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="227"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="114" t="s">
         <v>45</v>
       </c>
@@ -6787,7 +6867,7 @@
       <c r="J8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="234"/>
+      <c r="K8" s="150"/>
       <c r="L8" s="10" t="s">
         <v>84</v>
       </c>
@@ -6799,9 +6879,9 @@
       <c r="B9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="227"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="114" t="s">
         <v>46</v>
       </c>
@@ -6817,7 +6897,7 @@
       <c r="J9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="235"/>
+      <c r="K9" s="151"/>
       <c r="L9" s="10" t="s">
         <v>84</v>
       </c>
@@ -6829,9 +6909,9 @@
       <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="227"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="114" t="s">
         <v>50</v>
       </c>
@@ -6847,7 +6927,7 @@
       <c r="J10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="234"/>
+      <c r="K10" s="150"/>
       <c r="L10" s="10" t="s">
         <v>84</v>
       </c>
@@ -6859,9 +6939,9 @@
       <c r="B11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="239"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="227"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="114" t="s">
         <v>51</v>
       </c>
@@ -6877,7 +6957,7 @@
       <c r="J11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="234"/>
+      <c r="K11" s="150"/>
       <c r="L11" s="10" t="s">
         <v>84</v>
       </c>
@@ -6889,9 +6969,9 @@
       <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="239"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="227"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="114" t="s">
         <v>52</v>
       </c>
@@ -6907,7 +6987,7 @@
       <c r="J12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="234"/>
+      <c r="K12" s="150"/>
       <c r="L12" s="10" t="s">
         <v>84</v>
       </c>
@@ -6919,9 +6999,9 @@
       <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="239"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="227"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="114" t="s">
         <v>53</v>
       </c>
@@ -6937,7 +7017,7 @@
       <c r="J13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="235"/>
+      <c r="K13" s="151"/>
       <c r="L13" s="10" t="s">
         <v>84</v>
       </c>
@@ -6949,9 +7029,9 @@
       <c r="B14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="239"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="227"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="114" t="s">
         <v>54</v>
       </c>
@@ -6967,7 +7047,7 @@
       <c r="J14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="234"/>
+      <c r="K14" s="150"/>
       <c r="L14" s="10" t="s">
         <v>84</v>
       </c>
@@ -6979,9 +7059,9 @@
       <c r="B15" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="239"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="227"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="114" t="s">
         <v>55</v>
       </c>
@@ -6997,7 +7077,7 @@
       <c r="J15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="235"/>
+      <c r="K15" s="151"/>
       <c r="L15" s="10" t="s">
         <v>84</v>
       </c>
@@ -7009,9 +7089,9 @@
       <c r="B16" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="239"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="227"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="114" t="s">
         <v>56</v>
       </c>
@@ -7027,7 +7107,7 @@
       <c r="J16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="235"/>
+      <c r="K16" s="151"/>
       <c r="L16" s="10" t="s">
         <v>84</v>
       </c>
@@ -7039,9 +7119,9 @@
       <c r="B17" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="239"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="227"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="148"/>
       <c r="F17" s="114" t="s">
         <v>57</v>
       </c>
@@ -7057,7 +7137,7 @@
       <c r="J17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="234"/>
+      <c r="K17" s="150"/>
       <c r="L17" s="10" t="s">
         <v>84</v>
       </c>
@@ -7069,9 +7149,9 @@
       <c r="B18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="227"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="148"/>
       <c r="F18" s="114" t="s">
         <v>58</v>
       </c>
@@ -7087,7 +7167,7 @@
       <c r="J18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="234"/>
+      <c r="K18" s="150"/>
       <c r="L18" s="10" t="s">
         <v>84</v>
       </c>
@@ -7099,9 +7179,9 @@
       <c r="B19" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="239"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="227"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="114" t="s">
         <v>59</v>
       </c>
@@ -7117,7 +7197,7 @@
       <c r="J19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="234"/>
+      <c r="K19" s="150"/>
       <c r="L19" s="10" t="s">
         <v>84</v>
       </c>
@@ -7129,9 +7209,9 @@
       <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="239"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="227"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="114" t="s">
         <v>60</v>
       </c>
@@ -7147,7 +7227,7 @@
       <c r="J20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="234"/>
+      <c r="K20" s="150"/>
       <c r="L20" s="10" t="s">
         <v>84</v>
       </c>
@@ -7159,9 +7239,9 @@
       <c r="B21" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="239"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="227"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="148"/>
       <c r="F21" s="114" t="s">
         <v>61</v>
       </c>
@@ -7177,7 +7257,7 @@
       <c r="J21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="234"/>
+      <c r="K21" s="150"/>
       <c r="L21" s="10" t="s">
         <v>84</v>
       </c>
@@ -7189,9 +7269,9 @@
       <c r="B22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="228"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="149"/>
       <c r="F22" s="114" t="s">
         <v>62</v>
       </c>
@@ -7207,7 +7287,7 @@
       <c r="J22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="235"/>
+      <c r="K22" s="151"/>
       <c r="L22" s="10" t="s">
         <v>84</v>
       </c>
@@ -7222,8 +7302,8 @@
       <c r="C23" s="48">
         <v>42688</v>
       </c>
-      <c r="D23" s="224"/>
-      <c r="E23" s="229"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="237"/>
       <c r="F23" s="114" t="s">
         <v>70</v>
       </c>
@@ -7239,7 +7319,7 @@
       <c r="J23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="236"/>
+      <c r="K23" s="152"/>
       <c r="L23" s="10" t="s">
         <v>84</v>
       </c>
@@ -7254,8 +7334,8 @@
       <c r="C24" s="48">
         <v>42688</v>
       </c>
-      <c r="D24" s="224"/>
-      <c r="E24" s="230"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="240"/>
       <c r="F24" s="114" t="s">
         <v>71</v>
       </c>
@@ -7271,7 +7351,7 @@
       <c r="J24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="236"/>
+      <c r="K24" s="152"/>
       <c r="L24" s="10" t="s">
         <v>84</v>
       </c>
@@ -7286,8 +7366,8 @@
       <c r="C25" s="48">
         <v>42688</v>
       </c>
-      <c r="D25" s="224"/>
-      <c r="E25" s="230"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="240"/>
       <c r="F25" s="114" t="s">
         <v>72</v>
       </c>
@@ -7303,7 +7383,7 @@
       <c r="J25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="236"/>
+      <c r="K25" s="152"/>
       <c r="L25" s="10" t="s">
         <v>84</v>
       </c>
@@ -7318,8 +7398,8 @@
       <c r="C26" s="48">
         <v>42688</v>
       </c>
-      <c r="D26" s="224"/>
-      <c r="E26" s="230"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="240"/>
       <c r="F26" s="114" t="s">
         <v>73</v>
       </c>
@@ -7335,7 +7415,7 @@
       <c r="J26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="236"/>
+      <c r="K26" s="152"/>
       <c r="L26" s="10" t="s">
         <v>84</v>
       </c>
@@ -7350,8 +7430,8 @@
       <c r="C27" s="48">
         <v>42688</v>
       </c>
-      <c r="D27" s="224"/>
-      <c r="E27" s="231"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="241"/>
       <c r="F27" s="114" t="s">
         <v>74</v>
       </c>
@@ -7367,7 +7447,7 @@
       <c r="J27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K27" s="235"/>
+      <c r="K27" s="151"/>
       <c r="L27" s="10" t="s">
         <v>84</v>
       </c>
@@ -7382,8 +7462,8 @@
       <c r="C28" s="48">
         <v>42688</v>
       </c>
-      <c r="D28" s="224"/>
-      <c r="E28" s="229"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="237"/>
       <c r="F28" s="119" t="s">
         <v>81</v>
       </c>
@@ -7399,7 +7479,7 @@
       <c r="J28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K28" s="236"/>
+      <c r="K28" s="152"/>
       <c r="L28" s="10" t="s">
         <v>84</v>
       </c>
@@ -7414,8 +7494,8 @@
       <c r="C29" s="48">
         <v>42688</v>
       </c>
-      <c r="D29" s="224"/>
-      <c r="E29" s="232"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="238"/>
       <c r="F29" s="119" t="s">
         <v>64</v>
       </c>
@@ -7431,7 +7511,7 @@
       <c r="J29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="236"/>
+      <c r="K29" s="152"/>
       <c r="L29" s="10" t="s">
         <v>84</v>
       </c>
@@ -7446,8 +7526,8 @@
       <c r="C30" s="48">
         <v>42688</v>
       </c>
-      <c r="D30" s="224"/>
-      <c r="E30" s="232"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="238"/>
       <c r="F30" s="119" t="s">
         <v>65</v>
       </c>
@@ -7463,7 +7543,7 @@
       <c r="J30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="236"/>
+      <c r="K30" s="152"/>
       <c r="L30" s="10" t="s">
         <v>84</v>
       </c>
@@ -7478,8 +7558,8 @@
       <c r="C31" s="48">
         <v>42688</v>
       </c>
-      <c r="D31" s="224"/>
-      <c r="E31" s="232"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="238"/>
       <c r="F31" s="119" t="s">
         <v>66</v>
       </c>
@@ -7495,7 +7575,7 @@
       <c r="J31" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K31" s="236"/>
+      <c r="K31" s="152"/>
       <c r="L31" s="10" t="s">
         <v>84</v>
       </c>
@@ -7510,8 +7590,8 @@
       <c r="C32" s="48">
         <v>42688</v>
       </c>
-      <c r="D32" s="225"/>
-      <c r="E32" s="233"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="239"/>
       <c r="F32" s="119" t="s">
         <v>67</v>
       </c>
@@ -7527,7 +7607,7 @@
       <c r="J32" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K32" s="237"/>
+      <c r="K32" s="153"/>
       <c r="L32" s="10" t="s">
         <v>84</v>
       </c>
@@ -7545,7 +7625,7 @@
       <c r="H33" s="26"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="234"/>
+      <c r="K33" s="150"/>
       <c r="L33" s="11"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
@@ -8353,18 +8433,18 @@
       <c r="N83" s="22"/>
     </row>
     <row r="84" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="216"/>
-      <c r="B84" s="221"/>
-      <c r="C84" s="221"/>
-      <c r="D84" s="221"/>
-      <c r="E84" s="221"/>
-      <c r="F84" s="221"/>
-      <c r="G84" s="221"/>
-      <c r="H84" s="221"/>
-      <c r="I84" s="221"/>
-      <c r="J84" s="221"/>
-      <c r="K84" s="221"/>
-      <c r="L84" s="222"/>
+      <c r="A84" s="230"/>
+      <c r="B84" s="235"/>
+      <c r="C84" s="235"/>
+      <c r="D84" s="235"/>
+      <c r="E84" s="235"/>
+      <c r="F84" s="235"/>
+      <c r="G84" s="235"/>
+      <c r="H84" s="235"/>
+      <c r="I84" s="235"/>
+      <c r="J84" s="235"/>
+      <c r="K84" s="235"/>
+      <c r="L84" s="236"/>
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
     </row>
@@ -8547,18 +8627,18 @@
       <c r="P95" s="20"/>
     </row>
     <row r="96" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="216"/>
-      <c r="B96" s="221"/>
-      <c r="C96" s="221"/>
-      <c r="D96" s="221"/>
-      <c r="E96" s="221"/>
-      <c r="F96" s="221"/>
-      <c r="G96" s="221"/>
-      <c r="H96" s="221"/>
-      <c r="I96" s="221"/>
-      <c r="J96" s="221"/>
-      <c r="K96" s="221"/>
-      <c r="L96" s="222"/>
+      <c r="A96" s="230"/>
+      <c r="B96" s="235"/>
+      <c r="C96" s="235"/>
+      <c r="D96" s="235"/>
+      <c r="E96" s="235"/>
+      <c r="F96" s="235"/>
+      <c r="G96" s="235"/>
+      <c r="H96" s="235"/>
+      <c r="I96" s="235"/>
+      <c r="J96" s="235"/>
+      <c r="K96" s="235"/>
+      <c r="L96" s="236"/>
       <c r="M96" s="32"/>
       <c r="N96" s="32"/>
     </row>
@@ -8611,18 +8691,18 @@
       <c r="N99" s="15"/>
     </row>
     <row r="100" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="216"/>
-      <c r="B100" s="221"/>
-      <c r="C100" s="221"/>
-      <c r="D100" s="221"/>
-      <c r="E100" s="221"/>
-      <c r="F100" s="221"/>
-      <c r="G100" s="221"/>
-      <c r="H100" s="221"/>
-      <c r="I100" s="221"/>
-      <c r="J100" s="221"/>
-      <c r="K100" s="221"/>
-      <c r="L100" s="222"/>
+      <c r="A100" s="230"/>
+      <c r="B100" s="235"/>
+      <c r="C100" s="235"/>
+      <c r="D100" s="235"/>
+      <c r="E100" s="235"/>
+      <c r="F100" s="235"/>
+      <c r="G100" s="235"/>
+      <c r="H100" s="235"/>
+      <c r="I100" s="235"/>
+      <c r="J100" s="235"/>
+      <c r="K100" s="235"/>
+      <c r="L100" s="236"/>
       <c r="M100" s="32"/>
       <c r="N100" s="32"/>
     </row>
@@ -9027,18 +9107,18 @@
       <c r="N125" s="36"/>
     </row>
     <row r="126" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="216"/>
-      <c r="B126" s="221"/>
-      <c r="C126" s="221"/>
-      <c r="D126" s="221"/>
-      <c r="E126" s="221"/>
-      <c r="F126" s="221"/>
-      <c r="G126" s="221"/>
-      <c r="H126" s="221"/>
-      <c r="I126" s="221"/>
-      <c r="J126" s="221"/>
-      <c r="K126" s="221"/>
-      <c r="L126" s="222"/>
+      <c r="A126" s="230"/>
+      <c r="B126" s="235"/>
+      <c r="C126" s="235"/>
+      <c r="D126" s="235"/>
+      <c r="E126" s="235"/>
+      <c r="F126" s="235"/>
+      <c r="G126" s="235"/>
+      <c r="H126" s="235"/>
+      <c r="I126" s="235"/>
+      <c r="J126" s="235"/>
+      <c r="K126" s="235"/>
+      <c r="L126" s="236"/>
       <c r="M126" s="15"/>
       <c r="N126" s="15"/>
     </row>
@@ -9569,18 +9649,18 @@
       <c r="N155" s="36"/>
     </row>
     <row r="156" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="216"/>
-      <c r="B156" s="221"/>
-      <c r="C156" s="221"/>
-      <c r="D156" s="221"/>
-      <c r="E156" s="221"/>
-      <c r="F156" s="221"/>
-      <c r="G156" s="221"/>
-      <c r="H156" s="221"/>
-      <c r="I156" s="221"/>
-      <c r="J156" s="221"/>
-      <c r="K156" s="221"/>
-      <c r="L156" s="222"/>
+      <c r="A156" s="230"/>
+      <c r="B156" s="235"/>
+      <c r="C156" s="235"/>
+      <c r="D156" s="235"/>
+      <c r="E156" s="235"/>
+      <c r="F156" s="235"/>
+      <c r="G156" s="235"/>
+      <c r="H156" s="235"/>
+      <c r="I156" s="235"/>
+      <c r="J156" s="235"/>
+      <c r="K156" s="235"/>
+      <c r="L156" s="236"/>
       <c r="M156" s="37"/>
       <c r="N156" s="37"/>
     </row>
@@ -9937,18 +10017,18 @@
       <c r="N178" s="35"/>
     </row>
     <row r="179" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="216"/>
-      <c r="B179" s="221"/>
-      <c r="C179" s="221"/>
-      <c r="D179" s="221"/>
-      <c r="E179" s="221"/>
-      <c r="F179" s="221"/>
-      <c r="G179" s="221"/>
-      <c r="H179" s="221"/>
-      <c r="I179" s="221"/>
-      <c r="J179" s="221"/>
-      <c r="K179" s="221"/>
-      <c r="L179" s="222"/>
+      <c r="A179" s="230"/>
+      <c r="B179" s="235"/>
+      <c r="C179" s="235"/>
+      <c r="D179" s="235"/>
+      <c r="E179" s="235"/>
+      <c r="F179" s="235"/>
+      <c r="G179" s="235"/>
+      <c r="H179" s="235"/>
+      <c r="I179" s="235"/>
+      <c r="J179" s="235"/>
+      <c r="K179" s="235"/>
+      <c r="L179" s="236"/>
       <c r="M179" s="32"/>
       <c r="N179" s="32"/>
     </row>
@@ -10209,18 +10289,18 @@
       <c r="N195" s="15"/>
     </row>
     <row r="196" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="216"/>
-      <c r="B196" s="217"/>
-      <c r="C196" s="217"/>
-      <c r="D196" s="217"/>
-      <c r="E196" s="217"/>
-      <c r="F196" s="217"/>
-      <c r="G196" s="217"/>
-      <c r="H196" s="217"/>
-      <c r="I196" s="217"/>
-      <c r="J196" s="217"/>
-      <c r="K196" s="217"/>
-      <c r="L196" s="218"/>
+      <c r="A196" s="230"/>
+      <c r="B196" s="231"/>
+      <c r="C196" s="231"/>
+      <c r="D196" s="231"/>
+      <c r="E196" s="231"/>
+      <c r="F196" s="231"/>
+      <c r="G196" s="231"/>
+      <c r="H196" s="231"/>
+      <c r="I196" s="231"/>
+      <c r="J196" s="231"/>
+      <c r="K196" s="231"/>
+      <c r="L196" s="232"/>
       <c r="M196" s="32"/>
       <c r="N196" s="32"/>
     </row>
@@ -10496,87 +10576,87 @@
     <mergeCell ref="E23:E27"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:K6 K8 K10:K12 K14 K17:K22">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31 K33:K1048576 K25:K28 K1:K6 K8 K10:K12 K14 K17:K23">
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23 K30:K31 K25:K28">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10607,6 +10687,4085 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="128" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="233"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+    </row>
+    <row r="3" spans="1:14" s="16" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="154"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="150"/>
+      <c r="L3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" s="17" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="155"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="151"/>
+      <c r="L4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" s="17" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="155"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="151"/>
+      <c r="L5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="17" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="155"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="150"/>
+      <c r="L6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" s="17" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="155"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="151"/>
+      <c r="L7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" s="17" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="155"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="150"/>
+      <c r="L8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" s="17" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="155"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="151"/>
+      <c r="L9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" s="17" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="155"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="150"/>
+      <c r="L10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="17" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="155"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="150"/>
+      <c r="L11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" s="17" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="155"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="150"/>
+      <c r="L12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" s="17" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="155"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="151"/>
+      <c r="L13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" s="17" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="155"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="150"/>
+      <c r="L14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" s="17" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="155"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="151"/>
+      <c r="L15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" s="17" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="155"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="151"/>
+      <c r="L16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" s="17" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="155"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="150"/>
+      <c r="L17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" s="17" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="155"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="150"/>
+      <c r="L18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" s="17" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="155"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="150"/>
+      <c r="L19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" s="17" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="155"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="150"/>
+      <c r="L20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" s="17" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="155"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="150"/>
+      <c r="L21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" s="17" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="156"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="151"/>
+      <c r="L22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" s="17" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D23" s="145"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="152"/>
+      <c r="L23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" s="17" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D24" s="145"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="152"/>
+      <c r="L24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" s="17" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D25" s="145"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="152"/>
+      <c r="L25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" s="17" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D26" s="145"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="152"/>
+      <c r="L26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="1:14" s="17" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D27" s="145"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="151"/>
+      <c r="L27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" s="17" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D28" s="145"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="152"/>
+      <c r="L28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" s="17" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D29" s="145"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="152"/>
+      <c r="L29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14" s="17" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D30" s="145"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="152"/>
+      <c r="L30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:14" s="17" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D31" s="145"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="152"/>
+      <c r="L31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+    </row>
+    <row r="32" spans="1:14" s="17" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="48">
+        <v>42688</v>
+      </c>
+      <c r="D32" s="146"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="153"/>
+      <c r="L32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" s="17" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" s="17" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" s="17" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" s="17" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" s="17" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="116"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+    </row>
+    <row r="38" spans="1:14" s="17" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" s="17" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" s="17" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" s="17" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14" s="17" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="1:14" s="17" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:14" s="17" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+    </row>
+    <row r="45" spans="1:14" s="17" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+    </row>
+    <row r="46" spans="1:14" s="17" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="1:14" s="17" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="1:14" s="17" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" s="17" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="116"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+    </row>
+    <row r="50" spans="1:14" s="17" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="116"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+    </row>
+    <row r="51" spans="1:14" s="17" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="39"/>
+    </row>
+    <row r="52" spans="1:14" s="17" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+    </row>
+    <row r="53" spans="1:14" s="17" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+    </row>
+    <row r="54" spans="1:14" s="17" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+    </row>
+    <row r="55" spans="1:14" s="17" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+    </row>
+    <row r="56" spans="1:14" s="17" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" spans="1:14" s="17" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="116"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+    </row>
+    <row r="58" spans="1:14" s="17" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:14" s="17" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="116"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+    </row>
+    <row r="60" spans="1:14" s="17" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="115"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+    </row>
+    <row r="61" spans="1:14" s="17" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+    </row>
+    <row r="62" spans="1:14" s="17" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+    </row>
+    <row r="63" spans="1:14" s="17" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="121"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+    </row>
+    <row r="64" spans="1:14" s="17" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+    </row>
+    <row r="65" spans="1:15" s="17" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="115"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+    </row>
+    <row r="66" spans="1:15" s="17" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+    </row>
+    <row r="67" spans="1:15" s="17" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="116"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+    </row>
+    <row r="68" spans="1:15" s="17" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+    </row>
+    <row r="69" spans="1:15" s="17" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+    </row>
+    <row r="70" spans="1:15" s="17" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="115"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+    </row>
+    <row r="71" spans="1:15" s="17" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="115"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+    </row>
+    <row r="72" spans="1:15" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+    </row>
+    <row r="73" spans="1:15" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="23"/>
+    </row>
+    <row r="74" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+    </row>
+    <row r="75" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="115"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="53"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+    </row>
+    <row r="76" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+    </row>
+    <row r="77" spans="1:15" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="23"/>
+    </row>
+    <row r="78" spans="1:15" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="29"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+    </row>
+    <row r="79" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+    </row>
+    <row r="80" spans="1:15" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+    </row>
+    <row r="81" spans="1:16" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+    </row>
+    <row r="82" spans="1:16" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="115"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+    </row>
+    <row r="83" spans="1:16" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+    </row>
+    <row r="84" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="230"/>
+      <c r="B84" s="235"/>
+      <c r="C84" s="235"/>
+      <c r="D84" s="235"/>
+      <c r="E84" s="235"/>
+      <c r="F84" s="235"/>
+      <c r="G84" s="235"/>
+      <c r="H84" s="235"/>
+      <c r="I84" s="235"/>
+      <c r="J84" s="235"/>
+      <c r="K84" s="235"/>
+      <c r="L84" s="236"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+    </row>
+    <row r="85" spans="1:16" s="19" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="89"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="143"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+    </row>
+    <row r="86" spans="1:16" s="19" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="122"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71"/>
+      <c r="K86" s="73"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+    </row>
+    <row r="87" spans="1:16" s="19" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="122"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="73"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+    </row>
+    <row r="88" spans="1:16" s="19" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="55"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+    </row>
+    <row r="89" spans="1:16" s="19" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="55"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+    </row>
+    <row r="90" spans="1:16" s="19" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="55"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+    </row>
+    <row r="91" spans="1:16" s="19" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="121"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="76"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+    </row>
+    <row r="92" spans="1:16" s="19" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="121"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="61"/>
+      <c r="K92" s="76"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+    </row>
+    <row r="93" spans="1:16" s="19" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="55"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+    </row>
+    <row r="94" spans="1:16" s="19" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="89"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="143"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+    </row>
+    <row r="95" spans="1:16" s="19" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="89"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="68"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="143"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+    </row>
+    <row r="96" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="230"/>
+      <c r="B96" s="235"/>
+      <c r="C96" s="235"/>
+      <c r="D96" s="235"/>
+      <c r="E96" s="235"/>
+      <c r="F96" s="235"/>
+      <c r="G96" s="235"/>
+      <c r="H96" s="235"/>
+      <c r="I96" s="235"/>
+      <c r="J96" s="235"/>
+      <c r="K96" s="235"/>
+      <c r="L96" s="236"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+    </row>
+    <row r="97" spans="1:14" s="19" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="77"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+    </row>
+    <row r="98" spans="1:14" s="19" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="77"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+    </row>
+    <row r="99" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+    </row>
+    <row r="100" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="230"/>
+      <c r="B100" s="235"/>
+      <c r="C100" s="235"/>
+      <c r="D100" s="235"/>
+      <c r="E100" s="235"/>
+      <c r="F100" s="235"/>
+      <c r="G100" s="235"/>
+      <c r="H100" s="235"/>
+      <c r="I100" s="235"/>
+      <c r="J100" s="235"/>
+      <c r="K100" s="235"/>
+      <c r="L100" s="236"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+    </row>
+    <row r="101" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="29"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+    </row>
+    <row r="102" spans="1:14" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="115"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="79"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="33"/>
+    </row>
+    <row r="103" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="115"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="79"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="33"/>
+    </row>
+    <row r="104" spans="1:14" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+    </row>
+    <row r="105" spans="1:14" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="29"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+    </row>
+    <row r="106" spans="1:14" s="21" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="29"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="80"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+    </row>
+    <row r="107" spans="1:14" s="21" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="29"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+    </row>
+    <row r="108" spans="1:14" s="21" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="29"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="80"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+    </row>
+    <row r="109" spans="1:14" s="21" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="29"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="80"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+    </row>
+    <row r="110" spans="1:14" s="21" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="29"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="80"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+    </row>
+    <row r="111" spans="1:14" s="21" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="80"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+    </row>
+    <row r="112" spans="1:14" s="21" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="115"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="79"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="35"/>
+      <c r="N112" s="35"/>
+    </row>
+    <row r="113" spans="1:14" s="21" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="29"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+    </row>
+    <row r="114" spans="1:14" s="21" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="29"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="80"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+    </row>
+    <row r="115" spans="1:14" s="21" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="116"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="56"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="81"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="38"/>
+    </row>
+    <row r="116" spans="1:14" s="21" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="80"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+    </row>
+    <row r="117" spans="1:14" s="21" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="29"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="80"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+    </row>
+    <row r="118" spans="1:14" s="21" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="29"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="80"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+    </row>
+    <row r="119" spans="1:14" s="21" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="115"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="79"/>
+      <c r="L119" s="51"/>
+      <c r="M119" s="35"/>
+      <c r="N119" s="35"/>
+    </row>
+    <row r="120" spans="1:14" s="21" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="115"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="78"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="79"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="36"/>
+    </row>
+    <row r="121" spans="1:14" s="21" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="80"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+    </row>
+    <row r="122" spans="1:14" s="21" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="121"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="79"/>
+      <c r="L122" s="51"/>
+      <c r="M122" s="35"/>
+      <c r="N122" s="35"/>
+    </row>
+    <row r="123" spans="1:14" s="21" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="121"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="75"/>
+      <c r="E123" s="61"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="61"/>
+      <c r="J123" s="51"/>
+      <c r="K123" s="79"/>
+      <c r="L123" s="51"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
+    </row>
+    <row r="124" spans="1:14" s="21" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="29"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="80"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+    </row>
+    <row r="125" spans="1:14" s="21" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="115"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+      <c r="K125" s="79"/>
+      <c r="L125" s="51"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
+    </row>
+    <row r="126" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="230"/>
+      <c r="B126" s="235"/>
+      <c r="C126" s="235"/>
+      <c r="D126" s="235"/>
+      <c r="E126" s="235"/>
+      <c r="F126" s="235"/>
+      <c r="G126" s="235"/>
+      <c r="H126" s="235"/>
+      <c r="I126" s="235"/>
+      <c r="J126" s="235"/>
+      <c r="K126" s="235"/>
+      <c r="L126" s="236"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+    </row>
+    <row r="127" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="29"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="82"/>
+      <c r="K127" s="80"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+    </row>
+    <row r="128" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="29"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="82"/>
+      <c r="K128" s="80"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+    </row>
+    <row r="129" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="116"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="83"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="56"/>
+      <c r="H129" s="56"/>
+      <c r="I129" s="56"/>
+      <c r="J129" s="84"/>
+      <c r="K129" s="85"/>
+      <c r="L129" s="56"/>
+      <c r="M129" s="38"/>
+      <c r="N129" s="38"/>
+    </row>
+    <row r="130" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="29"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="86"/>
+      <c r="K130" s="80"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+    </row>
+    <row r="131" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="115"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="87"/>
+      <c r="K131" s="88"/>
+      <c r="L131" s="51"/>
+      <c r="M131" s="35"/>
+      <c r="N131" s="35"/>
+    </row>
+    <row r="132" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="115"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="51"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="51"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="87"/>
+      <c r="K132" s="88"/>
+      <c r="L132" s="51"/>
+      <c r="M132" s="36"/>
+      <c r="N132" s="36"/>
+    </row>
+    <row r="133" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="118"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="89"/>
+      <c r="K133" s="80"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+    </row>
+    <row r="134" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="29"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="48"/>
+      <c r="D134" s="48"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="55"/>
+      <c r="K134" s="80"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+    </row>
+    <row r="135" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="118"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="89"/>
+      <c r="K135" s="80"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+    </row>
+    <row r="136" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="118"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="82"/>
+      <c r="K136" s="80"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+    </row>
+    <row r="137" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="29"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="86"/>
+      <c r="K137" s="80"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+    </row>
+    <row r="138" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="118"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="89"/>
+      <c r="K138" s="80"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="39"/>
+      <c r="N138" s="39"/>
+    </row>
+    <row r="139" spans="1:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="29"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="80"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+    </row>
+    <row r="140" spans="1:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="118"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="90"/>
+      <c r="K140" s="80"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+    </row>
+    <row r="141" spans="1:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="118"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="82"/>
+      <c r="K141" s="80"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+    </row>
+    <row r="142" spans="1:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="29"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+    </row>
+    <row r="143" spans="1:14" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="116"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="83"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56"/>
+      <c r="H143" s="56"/>
+      <c r="I143" s="56"/>
+      <c r="J143" s="91"/>
+      <c r="K143" s="85"/>
+      <c r="L143" s="56"/>
+      <c r="M143" s="38"/>
+      <c r="N143" s="38"/>
+    </row>
+    <row r="144" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="116"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="83"/>
+      <c r="D144" s="83"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="56"/>
+      <c r="H144" s="56"/>
+      <c r="I144" s="56"/>
+      <c r="J144" s="91"/>
+      <c r="K144" s="85"/>
+      <c r="L144" s="56"/>
+      <c r="M144" s="38"/>
+      <c r="N144" s="38"/>
+    </row>
+    <row r="145" spans="1:34" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="29"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="92"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+    </row>
+    <row r="146" spans="1:34" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="29"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="48"/>
+      <c r="D146" s="48"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+    </row>
+    <row r="147" spans="1:34" s="23" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="115"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="78"/>
+      <c r="E147" s="51"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="51"/>
+      <c r="H147" s="51"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="87"/>
+      <c r="K147" s="88"/>
+      <c r="L147" s="51"/>
+      <c r="M147" s="36"/>
+      <c r="N147" s="36"/>
+      <c r="O147" s="24"/>
+      <c r="P147" s="24"/>
+      <c r="Q147" s="24"/>
+      <c r="R147" s="24"/>
+      <c r="S147" s="24"/>
+      <c r="T147" s="24"/>
+      <c r="U147" s="24"/>
+      <c r="V147" s="24"/>
+      <c r="W147" s="24"/>
+      <c r="X147" s="24"/>
+      <c r="Y147" s="24"/>
+      <c r="Z147" s="24"/>
+      <c r="AA147" s="24"/>
+      <c r="AB147" s="24"/>
+      <c r="AC147" s="24"/>
+      <c r="AD147" s="24"/>
+      <c r="AE147" s="24"/>
+      <c r="AF147" s="24"/>
+      <c r="AG147" s="24"/>
+      <c r="AH147" s="24"/>
+    </row>
+    <row r="148" spans="1:34" s="23" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="116"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="56"/>
+      <c r="I148" s="56"/>
+      <c r="J148" s="91"/>
+      <c r="K148" s="56"/>
+      <c r="L148" s="56"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="24"/>
+      <c r="P148" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q148" s="24"/>
+      <c r="R148" s="24"/>
+      <c r="S148" s="24"/>
+      <c r="T148" s="24"/>
+      <c r="U148" s="24"/>
+      <c r="V148" s="24"/>
+      <c r="W148" s="24"/>
+      <c r="X148" s="24"/>
+      <c r="Y148" s="24"/>
+      <c r="Z148" s="24"/>
+      <c r="AA148" s="24"/>
+      <c r="AB148" s="24"/>
+      <c r="AC148" s="24"/>
+      <c r="AD148" s="24"/>
+      <c r="AE148" s="24"/>
+      <c r="AF148" s="24"/>
+      <c r="AG148" s="24"/>
+      <c r="AH148" s="24"/>
+    </row>
+    <row r="149" spans="1:34" s="23" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="116"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="83"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56"/>
+      <c r="H149" s="56"/>
+      <c r="I149" s="56"/>
+      <c r="J149" s="93"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="24"/>
+      <c r="P149" s="24"/>
+      <c r="Q149" s="24"/>
+      <c r="R149" s="24"/>
+      <c r="S149" s="24"/>
+      <c r="T149" s="24"/>
+      <c r="U149" s="24"/>
+      <c r="V149" s="24"/>
+      <c r="W149" s="24"/>
+      <c r="X149" s="24"/>
+      <c r="Y149" s="24"/>
+      <c r="Z149" s="24"/>
+      <c r="AA149" s="24"/>
+      <c r="AB149" s="24"/>
+      <c r="AC149" s="24"/>
+      <c r="AD149" s="24"/>
+      <c r="AE149" s="24"/>
+      <c r="AF149" s="24"/>
+      <c r="AG149" s="24"/>
+      <c r="AH149" s="24"/>
+    </row>
+    <row r="150" spans="1:34" s="23" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="116"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="56"/>
+      <c r="J150" s="91"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+    </row>
+    <row r="151" spans="1:34" s="23" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="123"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="80"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+    </row>
+    <row r="152" spans="1:34" s="23" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="123"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="80"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+    </row>
+    <row r="153" spans="1:34" s="23" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="123"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="63"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="80"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+    </row>
+    <row r="154" spans="1:34" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="29"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="94"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
+    </row>
+    <row r="155" spans="1:34" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="115"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="78"/>
+      <c r="D155" s="78"/>
+      <c r="E155" s="51"/>
+      <c r="F155" s="51"/>
+      <c r="G155" s="51"/>
+      <c r="H155" s="51"/>
+      <c r="I155" s="51"/>
+      <c r="J155" s="87"/>
+      <c r="K155" s="51"/>
+      <c r="L155" s="51"/>
+      <c r="M155" s="36"/>
+      <c r="N155" s="36"/>
+    </row>
+    <row r="156" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="230"/>
+      <c r="B156" s="235"/>
+      <c r="C156" s="235"/>
+      <c r="D156" s="235"/>
+      <c r="E156" s="235"/>
+      <c r="F156" s="235"/>
+      <c r="G156" s="235"/>
+      <c r="H156" s="235"/>
+      <c r="I156" s="235"/>
+      <c r="J156" s="235"/>
+      <c r="K156" s="235"/>
+      <c r="L156" s="236"/>
+      <c r="M156" s="37"/>
+      <c r="N156" s="37"/>
+    </row>
+    <row r="157" spans="1:34" s="25" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="124"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="95"/>
+      <c r="D157" s="95"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="80"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="80"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+    </row>
+    <row r="158" spans="1:34" s="25" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="124"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="95"/>
+      <c r="D158" s="95"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="80"/>
+      <c r="J158" s="80"/>
+      <c r="K158" s="80"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+    </row>
+    <row r="159" spans="1:34" s="25" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="124"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="95"/>
+      <c r="D159" s="95"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="80"/>
+      <c r="J159" s="80"/>
+      <c r="K159" s="80"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+    </row>
+    <row r="160" spans="1:34" s="25" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="124"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="95"/>
+      <c r="D160" s="95"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="80"/>
+      <c r="J160" s="80"/>
+      <c r="K160" s="80"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+    </row>
+    <row r="161" spans="1:14" s="25" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="124"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="95"/>
+      <c r="D161" s="95"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="80"/>
+      <c r="J161" s="80"/>
+      <c r="K161" s="80"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+    </row>
+    <row r="162" spans="1:14" s="25" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="125"/>
+      <c r="B162" s="56"/>
+      <c r="C162" s="96"/>
+      <c r="D162" s="96"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="56"/>
+      <c r="G162" s="56"/>
+      <c r="H162" s="56"/>
+      <c r="I162" s="85"/>
+      <c r="J162" s="85"/>
+      <c r="K162" s="85"/>
+      <c r="L162" s="56"/>
+      <c r="M162" s="38"/>
+      <c r="N162" s="38"/>
+    </row>
+    <row r="163" spans="1:14" s="25" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="124"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="95"/>
+      <c r="D163" s="95"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="80"/>
+      <c r="J163" s="80"/>
+      <c r="K163" s="80"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+    </row>
+    <row r="164" spans="1:14" s="25" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="125"/>
+      <c r="B164" s="56"/>
+      <c r="C164" s="96"/>
+      <c r="D164" s="96"/>
+      <c r="E164" s="56"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="56"/>
+      <c r="H164" s="56"/>
+      <c r="I164" s="85"/>
+      <c r="J164" s="85"/>
+      <c r="K164" s="85"/>
+      <c r="L164" s="56"/>
+      <c r="M164" s="38"/>
+      <c r="N164" s="38"/>
+    </row>
+    <row r="165" spans="1:14" s="25" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="125"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="96"/>
+      <c r="D165" s="96"/>
+      <c r="E165" s="56"/>
+      <c r="F165" s="56"/>
+      <c r="G165" s="56"/>
+      <c r="H165" s="56"/>
+      <c r="I165" s="85"/>
+      <c r="J165" s="85"/>
+      <c r="K165" s="85"/>
+      <c r="L165" s="56"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
+    </row>
+    <row r="166" spans="1:14" s="25" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="125"/>
+      <c r="B166" s="56"/>
+      <c r="C166" s="96"/>
+      <c r="D166" s="96"/>
+      <c r="E166" s="56"/>
+      <c r="F166" s="56"/>
+      <c r="G166" s="56"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="85"/>
+      <c r="J166" s="85"/>
+      <c r="K166" s="85"/>
+      <c r="L166" s="56"/>
+      <c r="M166" s="38"/>
+      <c r="N166" s="38"/>
+    </row>
+    <row r="167" spans="1:14" s="25" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="124"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="95"/>
+      <c r="D167" s="95"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="80"/>
+      <c r="J167" s="80"/>
+      <c r="K167" s="80"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+    </row>
+    <row r="168" spans="1:14" s="25" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="125"/>
+      <c r="B168" s="56"/>
+      <c r="C168" s="96"/>
+      <c r="D168" s="96"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="56"/>
+      <c r="G168" s="56"/>
+      <c r="H168" s="56"/>
+      <c r="I168" s="85"/>
+      <c r="J168" s="85"/>
+      <c r="K168" s="85"/>
+      <c r="L168" s="56"/>
+      <c r="M168" s="38"/>
+      <c r="N168" s="38"/>
+    </row>
+    <row r="169" spans="1:14" s="25" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="125"/>
+      <c r="B169" s="56"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="56"/>
+      <c r="G169" s="56"/>
+      <c r="H169" s="56"/>
+      <c r="I169" s="85"/>
+      <c r="J169" s="85"/>
+      <c r="K169" s="85"/>
+      <c r="L169" s="56"/>
+      <c r="M169" s="38"/>
+      <c r="N169" s="38"/>
+    </row>
+    <row r="170" spans="1:14" s="25" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="124"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="95"/>
+      <c r="D170" s="95"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="80"/>
+      <c r="J170" s="80"/>
+      <c r="K170" s="80"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="15"/>
+    </row>
+    <row r="171" spans="1:14" s="25" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="124"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="95"/>
+      <c r="D171" s="95"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="80"/>
+      <c r="J171" s="80"/>
+      <c r="K171" s="80"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="15"/>
+      <c r="N171" s="15"/>
+    </row>
+    <row r="172" spans="1:14" s="25" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="125"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="96"/>
+      <c r="D172" s="96"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="56"/>
+      <c r="G172" s="56"/>
+      <c r="H172" s="56"/>
+      <c r="I172" s="85"/>
+      <c r="J172" s="85"/>
+      <c r="K172" s="85"/>
+      <c r="L172" s="56"/>
+      <c r="M172" s="38"/>
+      <c r="N172" s="38"/>
+    </row>
+    <row r="173" spans="1:14" s="25" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="124"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="95"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="80"/>
+      <c r="J173" s="80"/>
+      <c r="K173" s="80"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+    </row>
+    <row r="174" spans="1:14" s="25" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="124"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="95"/>
+      <c r="D174" s="95"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="80"/>
+      <c r="J174" s="80"/>
+      <c r="K174" s="80"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
+    </row>
+    <row r="175" spans="1:14" s="25" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="124"/>
+      <c r="B175" s="80"/>
+      <c r="C175" s="95"/>
+      <c r="D175" s="95"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="97"/>
+      <c r="I175" s="80"/>
+      <c r="J175" s="80"/>
+      <c r="K175" s="80"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
+    </row>
+    <row r="176" spans="1:14" s="25" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="126"/>
+      <c r="B176" s="98"/>
+      <c r="C176" s="99"/>
+      <c r="D176" s="99"/>
+      <c r="E176" s="51"/>
+      <c r="F176" s="51"/>
+      <c r="G176" s="51"/>
+      <c r="H176" s="51"/>
+      <c r="I176" s="88"/>
+      <c r="J176" s="88"/>
+      <c r="K176" s="88"/>
+      <c r="L176" s="51"/>
+      <c r="M176" s="35"/>
+      <c r="N176" s="35"/>
+    </row>
+    <row r="177" spans="1:14" s="25" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="125"/>
+      <c r="B177" s="56"/>
+      <c r="C177" s="96"/>
+      <c r="D177" s="96"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="56"/>
+      <c r="G177" s="56"/>
+      <c r="H177" s="56"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
+      <c r="K177" s="85"/>
+      <c r="L177" s="56"/>
+      <c r="M177" s="38"/>
+      <c r="N177" s="38"/>
+    </row>
+    <row r="178" spans="1:14" s="25" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="126"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="99"/>
+      <c r="D178" s="99"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="51"/>
+      <c r="I178" s="88"/>
+      <c r="J178" s="88"/>
+      <c r="K178" s="88"/>
+      <c r="L178" s="51"/>
+      <c r="M178" s="35"/>
+      <c r="N178" s="35"/>
+    </row>
+    <row r="179" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="230"/>
+      <c r="B179" s="235"/>
+      <c r="C179" s="235"/>
+      <c r="D179" s="235"/>
+      <c r="E179" s="235"/>
+      <c r="F179" s="235"/>
+      <c r="G179" s="235"/>
+      <c r="H179" s="235"/>
+      <c r="I179" s="235"/>
+      <c r="J179" s="235"/>
+      <c r="K179" s="235"/>
+      <c r="L179" s="236"/>
+      <c r="M179" s="32"/>
+      <c r="N179" s="32"/>
+    </row>
+    <row r="180" spans="1:14" s="27" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="124"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="80"/>
+      <c r="D180" s="80"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="80"/>
+      <c r="J180" s="100"/>
+      <c r="K180" s="80"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="15"/>
+    </row>
+    <row r="181" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="124"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="80"/>
+      <c r="D181" s="80"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="80"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="49"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="15"/>
+    </row>
+    <row r="182" spans="1:14" s="44" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="105"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="101"/>
+      <c r="D182" s="101"/>
+      <c r="E182" s="54"/>
+      <c r="F182" s="54"/>
+      <c r="G182" s="54"/>
+      <c r="H182" s="54"/>
+      <c r="I182" s="101"/>
+      <c r="J182" s="54"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="45"/>
+      <c r="N182" s="45"/>
+    </row>
+    <row r="183" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="124"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="80"/>
+      <c r="D183" s="80"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="80"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="15"/>
+      <c r="N183" s="15"/>
+    </row>
+    <row r="184" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="125"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="85"/>
+      <c r="D184" s="85"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="56"/>
+      <c r="G184" s="56"/>
+      <c r="H184" s="56"/>
+      <c r="I184" s="85"/>
+      <c r="J184" s="91"/>
+      <c r="K184" s="102"/>
+      <c r="L184" s="102"/>
+      <c r="M184" s="38"/>
+      <c r="N184" s="38"/>
+    </row>
+    <row r="185" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="124"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="80"/>
+      <c r="D185" s="80"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="80"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="80"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="15"/>
+      <c r="N185" s="15"/>
+    </row>
+    <row r="186" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="126"/>
+      <c r="B186" s="51"/>
+      <c r="C186" s="88"/>
+      <c r="D186" s="88"/>
+      <c r="E186" s="51"/>
+      <c r="F186" s="51"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="51"/>
+      <c r="I186" s="88"/>
+      <c r="J186" s="104"/>
+      <c r="K186" s="104"/>
+      <c r="L186" s="104"/>
+      <c r="M186" s="35"/>
+      <c r="N186" s="35"/>
+    </row>
+    <row r="187" spans="1:14" s="44" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="105"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="101"/>
+      <c r="D187" s="101"/>
+      <c r="E187" s="54"/>
+      <c r="F187" s="54"/>
+      <c r="G187" s="54"/>
+      <c r="H187" s="54"/>
+      <c r="I187" s="105"/>
+      <c r="J187" s="55"/>
+      <c r="K187" s="80"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="45"/>
+      <c r="N187" s="45"/>
+    </row>
+    <row r="188" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="126"/>
+      <c r="B188" s="51"/>
+      <c r="C188" s="88"/>
+      <c r="D188" s="88"/>
+      <c r="E188" s="51"/>
+      <c r="F188" s="51"/>
+      <c r="G188" s="51"/>
+      <c r="H188" s="51"/>
+      <c r="I188" s="88"/>
+      <c r="J188" s="104"/>
+      <c r="K188" s="104"/>
+      <c r="L188" s="104"/>
+      <c r="M188" s="35"/>
+      <c r="N188" s="35"/>
+    </row>
+    <row r="189" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="124"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="80"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="103"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="15"/>
+      <c r="N189" s="15"/>
+    </row>
+    <row r="190" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="124"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="80"/>
+      <c r="D190" s="80"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="103"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="11"/>
+      <c r="M190" s="15"/>
+      <c r="N190" s="15"/>
+    </row>
+    <row r="191" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="124"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="80"/>
+      <c r="D191" s="80"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="103"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="11"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="15"/>
+    </row>
+    <row r="192" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="125"/>
+      <c r="B192" s="56"/>
+      <c r="C192" s="85"/>
+      <c r="D192" s="85"/>
+      <c r="E192" s="56"/>
+      <c r="F192" s="56"/>
+      <c r="G192" s="56"/>
+      <c r="H192" s="56"/>
+      <c r="I192" s="56"/>
+      <c r="J192" s="102"/>
+      <c r="K192" s="102"/>
+      <c r="L192" s="102"/>
+      <c r="M192" s="38"/>
+      <c r="N192" s="38"/>
+    </row>
+    <row r="193" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="116"/>
+      <c r="B193" s="56"/>
+      <c r="C193" s="56"/>
+      <c r="D193" s="56"/>
+      <c r="E193" s="56"/>
+      <c r="F193" s="56"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="56"/>
+      <c r="I193" s="56"/>
+      <c r="J193" s="102"/>
+      <c r="K193" s="102"/>
+      <c r="L193" s="102"/>
+      <c r="M193" s="38"/>
+      <c r="N193" s="38"/>
+    </row>
+    <row r="194" spans="1:14" s="27" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="29"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="103"/>
+      <c r="K194" s="80"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="15"/>
+      <c r="N194" s="15"/>
+    </row>
+    <row r="195" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="29"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="103"/>
+      <c r="K195" s="80"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="15"/>
+      <c r="N195" s="15"/>
+    </row>
+    <row r="196" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="230"/>
+      <c r="B196" s="231"/>
+      <c r="C196" s="231"/>
+      <c r="D196" s="231"/>
+      <c r="E196" s="231"/>
+      <c r="F196" s="231"/>
+      <c r="G196" s="231"/>
+      <c r="H196" s="231"/>
+      <c r="I196" s="231"/>
+      <c r="J196" s="231"/>
+      <c r="K196" s="231"/>
+      <c r="L196" s="232"/>
+      <c r="M196" s="32"/>
+      <c r="N196" s="32"/>
+    </row>
+    <row r="197" spans="1:14" s="27" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="55"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="106"/>
+      <c r="D197" s="106"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="103"/>
+      <c r="K197" s="80"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="15"/>
+    </row>
+    <row r="198" spans="1:14" s="27" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="55"/>
+      <c r="B198" s="54"/>
+      <c r="C198" s="106"/>
+      <c r="D198" s="106"/>
+      <c r="E198" s="54"/>
+      <c r="F198" s="54"/>
+      <c r="G198" s="54"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="54"/>
+      <c r="J198" s="103"/>
+      <c r="K198" s="80"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="15"/>
+      <c r="N198" s="15"/>
+    </row>
+    <row r="199" spans="1:14" s="27" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="110"/>
+      <c r="B199" s="107"/>
+      <c r="C199" s="108"/>
+      <c r="D199" s="108"/>
+      <c r="E199" s="107"/>
+      <c r="F199" s="107"/>
+      <c r="G199" s="107"/>
+      <c r="H199" s="107"/>
+      <c r="I199" s="107"/>
+      <c r="J199" s="107"/>
+      <c r="K199" s="56"/>
+      <c r="L199" s="109"/>
+      <c r="M199" s="38"/>
+      <c r="N199" s="38"/>
+    </row>
+    <row r="200" spans="1:14" s="27" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="55"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="106"/>
+      <c r="D200" s="106"/>
+      <c r="E200" s="54"/>
+      <c r="F200" s="54"/>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="54"/>
+      <c r="J200" s="103"/>
+      <c r="K200" s="80"/>
+      <c r="L200" s="49"/>
+      <c r="M200" s="15"/>
+      <c r="N200" s="15"/>
+    </row>
+    <row r="201" spans="1:14" s="27" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="55"/>
+      <c r="B201" s="54"/>
+      <c r="C201" s="106"/>
+      <c r="D201" s="106"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="103"/>
+      <c r="K201" s="80"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="15"/>
+      <c r="N201" s="15"/>
+    </row>
+    <row r="202" spans="1:14" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="55"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="106"/>
+      <c r="D202" s="106"/>
+      <c r="E202" s="54"/>
+      <c r="F202" s="54"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="54"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="80"/>
+      <c r="L202" s="49"/>
+      <c r="M202" s="15"/>
+      <c r="N202" s="15"/>
+    </row>
+    <row r="203" spans="1:14" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="110"/>
+      <c r="B203" s="107"/>
+      <c r="C203" s="108"/>
+      <c r="D203" s="108"/>
+      <c r="E203" s="107"/>
+      <c r="F203" s="107"/>
+      <c r="G203" s="107"/>
+      <c r="H203" s="107"/>
+      <c r="I203" s="107"/>
+      <c r="J203" s="107"/>
+      <c r="K203" s="109"/>
+      <c r="L203" s="109"/>
+      <c r="M203" s="38"/>
+      <c r="N203" s="38"/>
+    </row>
+    <row r="204" spans="1:14" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="110"/>
+      <c r="B204" s="107"/>
+      <c r="C204" s="108"/>
+      <c r="D204" s="108"/>
+      <c r="E204" s="107"/>
+      <c r="F204" s="107"/>
+      <c r="G204" s="107"/>
+      <c r="H204" s="107"/>
+      <c r="I204" s="107"/>
+      <c r="J204" s="107"/>
+      <c r="K204" s="109"/>
+      <c r="L204" s="109"/>
+      <c r="M204" s="38"/>
+      <c r="N204" s="38"/>
+    </row>
+    <row r="205" spans="1:14" s="28" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="55"/>
+      <c r="B205" s="54"/>
+      <c r="C205" s="106"/>
+      <c r="D205" s="106"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="54"/>
+      <c r="G205" s="54"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="54"/>
+      <c r="J205" s="54"/>
+      <c r="K205" s="80"/>
+      <c r="L205" s="49"/>
+      <c r="M205" s="15"/>
+      <c r="N205" s="15"/>
+    </row>
+    <row r="206" spans="1:14" s="28" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="55"/>
+      <c r="B206" s="54"/>
+      <c r="C206" s="106"/>
+      <c r="D206" s="106"/>
+      <c r="E206" s="54"/>
+      <c r="F206" s="54"/>
+      <c r="G206" s="54"/>
+      <c r="H206" s="54"/>
+      <c r="I206" s="54"/>
+      <c r="J206" s="54"/>
+      <c r="K206" s="80"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="15"/>
+      <c r="N206" s="15"/>
+    </row>
+    <row r="207" spans="1:14" s="27" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="55"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="106"/>
+      <c r="D207" s="106"/>
+      <c r="E207" s="54"/>
+      <c r="F207" s="54"/>
+      <c r="G207" s="54"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="54"/>
+      <c r="J207" s="54"/>
+      <c r="K207" s="80"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="15"/>
+      <c r="N207" s="15"/>
+    </row>
+    <row r="208" spans="1:14" s="27" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="55"/>
+      <c r="B208" s="54"/>
+      <c r="C208" s="106"/>
+      <c r="D208" s="106"/>
+      <c r="E208" s="54"/>
+      <c r="F208" s="54"/>
+      <c r="G208" s="54"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="54"/>
+      <c r="J208" s="54"/>
+      <c r="K208" s="80"/>
+      <c r="L208" s="111"/>
+      <c r="M208" s="15"/>
+      <c r="N208" s="15"/>
+    </row>
+    <row r="209" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="55"/>
+      <c r="B209" s="54"/>
+      <c r="C209" s="106"/>
+      <c r="D209" s="106"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="54"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="55"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="80"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="15"/>
+      <c r="N209" s="15"/>
+    </row>
+    <row r="210" spans="1:14" s="27" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="55"/>
+      <c r="B210" s="54"/>
+      <c r="C210" s="106"/>
+      <c r="D210" s="106"/>
+      <c r="E210" s="54"/>
+      <c r="F210" s="54"/>
+      <c r="G210" s="112"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="55"/>
+      <c r="J210" s="54"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="111"/>
+      <c r="M210" s="15"/>
+      <c r="N210" s="15"/>
+    </row>
+    <row r="211" spans="1:14" s="27" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="55"/>
+      <c r="B211" s="54"/>
+      <c r="C211" s="106"/>
+      <c r="D211" s="106"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="112"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="55"/>
+      <c r="J211" s="54"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="111"/>
+      <c r="M211" s="15"/>
+      <c r="N211" s="15"/>
+    </row>
+    <row r="212" spans="1:14" s="27" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="127"/>
+      <c r="B212" s="54"/>
+      <c r="C212" s="106"/>
+      <c r="D212" s="106"/>
+      <c r="E212" s="54"/>
+      <c r="F212" s="54"/>
+      <c r="G212" s="113"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="55"/>
+      <c r="J212" s="54"/>
+      <c r="K212" s="80"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="15"/>
+      <c r="N212" s="15"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="K1:K212"/>
+  <dataConsolidate/>
+  <mergeCells count="10">
+    <mergeCell ref="A126:L126"/>
+    <mergeCell ref="A156:L156"/>
+    <mergeCell ref="A179:L179"/>
+    <mergeCell ref="A196:L196"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E32"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A100:L100"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K3:K6 K8 K10:K12 K14 K17:K22">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",K3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K31 K33:K1048576 K25:K28 K1:K6 K8 K10:K12 K14 K17:K23">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23 K30:K31 K25:K28">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",K7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",K13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",K15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",K16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I127:I144">
+      <formula1>Sheet1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146:B150">
+      <formula1>abcd</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="VSD188:VSD195 TB197 ACX197 AMT197 AWP197 BGL197 BQH197 CAD197 CJZ197 CTV197 DDR197 DNN197 DXJ197 EHF197 ERB197 FAX197 FKT197 FUP197 GEL197 GOH197 GYD197 HHZ197 HRV197 IBR197 ILN197 IVJ197 JFF197 JPB197 JYX197 KIT197 KSP197 LCL197 LMH197 LWD197 MFZ197 MPV197 MZR197 NJN197 NTJ197 ODF197 ONB197 OWX197 PGT197 PQP197 QAL197 QKH197 QUD197 RDZ197 RNV197 RXR197 SHN197 SRJ197 TBF197 TLB197 TUX197 UET197 UOP197 UYL197 VIH197 VSD197 WBZ197 WLV197 WVR197 JF197 VIH188:VIH195 UYL188:UYL195 UOP188:UOP195 UET188:UET195 TUX188:TUX195 TLB188:TLB195 TBF188:TBF195 SRJ188:SRJ195 SHN188:SHN195 RXR188:RXR195 RNV188:RNV195 RDZ188:RDZ195 QUD188:QUD195 QKH188:QKH195 QAL188:QAL195 PQP188:PQP195 PGT188:PGT195 OWX188:OWX195 ONB188:ONB195 ODF188:ODF195 NTJ188:NTJ195 NJN188:NJN195 MZR188:MZR195 MPV188:MPV195 MFZ188:MFZ195 LWD188:LWD195 LMH188:LMH195 LCL188:LCL195 KSP188:KSP195 KIT188:KIT195 JYX188:JYX195 JPB188:JPB195 JFF188:JFF195 IVJ188:IVJ195 ILN188:ILN195 IBR188:IBR195 HRV188:HRV195 HHZ188:HHZ195 GYD188:GYD195 GOH188:GOH195 GEL188:GEL195 FUP188:FUP195 FKT188:FKT195 FAX188:FAX195 ERB188:ERB195 EHF188:EHF195 DXJ188:DXJ195 DNN188:DNN195 DDR188:DDR195 CTV188:CTV195 CJZ188:CJZ195 CAD188:CAD195 BQH188:BQH195 BGL188:BGL195 AWP188:AWP195 AMT188:AMT195 ACX188:ACX195 TB188:TB195 JF188:JF195 WVR188:WVR195 WLV188:WLV195 WBZ188:WBZ195 WLV180:WLV181 WVR180:WVR181 JF180:JF181 TB180:TB181 ACX180:ACX181 AMT180:AMT181 AWP180:AWP181 BGL180:BGL181 BQH180:BQH181 CAD180:CAD181 CJZ180:CJZ181 CTV180:CTV181 DDR180:DDR181 DNN180:DNN181 DXJ180:DXJ181 EHF180:EHF181 ERB180:ERB181 FAX180:FAX181 FKT180:FKT181 FUP180:FUP181 GEL180:GEL181 GOH180:GOH181 GYD180:GYD181 HHZ180:HHZ181 HRV180:HRV181 IBR180:IBR181 ILN180:ILN181 IVJ180:IVJ181 JFF180:JFF181 JPB180:JPB181 JYX180:JYX181 KIT180:KIT181 KSP180:KSP181 LCL180:LCL181 LMH180:LMH181 LWD180:LWD181 MFZ180:MFZ181 MPV180:MPV181 MZR180:MZR181 NJN180:NJN181 NTJ180:NTJ181 ODF180:ODF181 ONB180:ONB181 OWX180:OWX181 PGT180:PGT181 PQP180:PQP181 QAL180:QAL181 QKH180:QKH181 QUD180:QUD181 RDZ180:RDZ181 RNV180:RNV181 RXR180:RXR181 SHN180:SHN181 SRJ180:SRJ181 TBF180:TBF181 TLB180:TLB181 TUX180:TUX181 UET180:UET181 UOP180:UOP181 UYL180:UYL181 VIH180:VIH181 VSD180:VSD181 WBZ180:WBZ181 WBZ183:WBZ186 WLV183:WLV186 WVR183:WVR186 JF183:JF186 TB183:TB186 ACX183:ACX186 AMT183:AMT186 AWP183:AWP186 BGL183:BGL186 BQH183:BQH186 CAD183:CAD186 CJZ183:CJZ186 CTV183:CTV186 DDR183:DDR186 DNN183:DNN186 DXJ183:DXJ186 EHF183:EHF186 ERB183:ERB186 FAX183:FAX186 FKT183:FKT186 FUP183:FUP186 GEL183:GEL186 GOH183:GOH186 GYD183:GYD186 HHZ183:HHZ186 HRV183:HRV186 IBR183:IBR186 ILN183:ILN186 IVJ183:IVJ186 JFF183:JFF186 JPB183:JPB186 JYX183:JYX186 KIT183:KIT186 KSP183:KSP186 LCL183:LCL186 LMH183:LMH186 LWD183:LWD186 MFZ183:MFZ186 MPV183:MPV186 MZR183:MZR186 NJN183:NJN186 NTJ183:NTJ186 ODF183:ODF186 ONB183:ONB186 OWX183:OWX186 PGT183:PGT186 PQP183:PQP186 QAL183:QAL186 QKH183:QKH186 QUD183:QUD186 RDZ183:RDZ186 RNV183:RNV186 RXR183:RXR186 SHN183:SHN186 SRJ183:SRJ186 TBF183:TBF186 TLB183:TLB186 TUX183:TUX186 UET183:UET186 UOP183:UOP186 UYL183:UYL186 VIH183:VIH186 VSD183:VSD186">
+      <formula1>ReviewStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I77:I82 SZ188:SZ195 ACV188:ACV195 AMR188:AMR195 AWN188:AWN195 BGJ188:BGJ195 BQF188:BQF195 CAB188:CAB195 CJX188:CJX195 CTT188:CTT195 DDP188:DDP195 DNL188:DNL195 DXH188:DXH195 EHD188:EHD195 EQZ188:EQZ195 FAV188:FAV195 FKR188:FKR195 FUN188:FUN195 GEJ188:GEJ195 GOF188:GOF195 GYB188:GYB195 HHX188:HHX195 HRT188:HRT195 IBP188:IBP195 ILL188:ILL195 IVH188:IVH195 JFD188:JFD195 JOZ188:JOZ195 JYV188:JYV195 KIR188:KIR195 KSN188:KSN195 LCJ188:LCJ195 LMF188:LMF195 LWB188:LWB195 MFX188:MFX195 MPT188:MPT195 MZP188:MZP195 NJL188:NJL195 NTH188:NTH195 ODD188:ODD195 OMZ188:OMZ195 OWV188:OWV195 PGR188:PGR195 PQN188:PQN195 QAJ188:QAJ195 QKF188:QKF195 QUB188:QUB195 RDX188:RDX195 RNT188:RNT195 RXP188:RXP195 SHL188:SHL195 SRH188:SRH195 TBD188:TBD195 TKZ188:TKZ195 TUV188:TUV195 UER188:UER195 UON188:UON195 UYJ188:UYJ195 VIF188:VIF195 VSB188:VSB195 WBX188:WBX195 WLT188:WLT195 WVP188:WVP195 JD188:JD195 I124:I125 I101:I122 I189:I195 WLT197:WLT212 WVP197:WVP212 JD197:JD212 SZ197:SZ212 ACV197:ACV212 AMR197:AMR212 AWN197:AWN212 BGJ197:BGJ212 BQF197:BQF212 CAB197:CAB212 CJX197:CJX212 CTT197:CTT212 DDP197:DDP212 DNL197:DNL212 DXH197:DXH212 EHD197:EHD212 EQZ197:EQZ212 FAV197:FAV212 FKR197:FKR212 FUN197:FUN212 GEJ197:GEJ212 GOF197:GOF212 GYB197:GYB212 HHX197:HHX212 HRT197:HRT212 IBP197:IBP212 ILL197:ILL212 IVH197:IVH212 JFD197:JFD212 JOZ197:JOZ212 JYV197:JYV212 KIR197:KIR212 KSN197:KSN212 LCJ197:LCJ212 LMF197:LMF212 LWB197:LWB212 MFX197:MFX212 MPT197:MPT212 MZP197:MZP212 NJL197:NJL212 NTH197:NTH212 ODD197:ODD212 OMZ197:OMZ212 OWV197:OWV212 PGR197:PGR212 PQN197:PQN212 QAJ197:QAJ212 QKF197:QKF212 QUB197:QUB212 RDX197:RDX212 RNT197:RNT212 RXP197:RXP212 SHL197:SHL212 SRH197:SRH212 TBD197:TBD212 TKZ197:TKZ212 TUV197:TUV212 UER197:UER212 UON197:UON212 UYJ197:UYJ212 VIF197:VIF212 VSB197:VSB212 WBX197:WBX212 WLT180:WLT181 WBX180:WBX181 VSB180:VSB181 VIF180:VIF181 UYJ180:UYJ181 UON180:UON181 UER180:UER181 TUV180:TUV181 TKZ180:TKZ181 TBD180:TBD181 SRH180:SRH181 SHL180:SHL181 RXP180:RXP181 RNT180:RNT181 RDX180:RDX181 QUB180:QUB181 QKF180:QKF181 QAJ180:QAJ181 PQN180:PQN181 PGR180:PGR181 OWV180:OWV181 OMZ180:OMZ181 ODD180:ODD181 NTH180:NTH181 NJL180:NJL181 MZP180:MZP181 MPT180:MPT181 MFX180:MFX181 LWB180:LWB181 LMF180:LMF181 LCJ180:LCJ181 KSN180:KSN181 KIR180:KIR181 JYV180:JYV181 JOZ180:JOZ181 JFD180:JFD181 IVH180:IVH181 ILL180:ILL181 IBP180:IBP181 HRT180:HRT181 HHX180:HHX181 GYB180:GYB181 GOF180:GOF181 GEJ180:GEJ181 FUN180:FUN181 FKR180:FKR181 FAV180:FAV181 EQZ180:EQZ181 EHD180:EHD181 DXH180:DXH181 DNL180:DNL181 DDP180:DDP181 CTT180:CTT181 CJX180:CJX181 CAB180:CAB181 BQF180:BQF181 BGJ180:BGJ181 AWN180:AWN181 AMR180:AMR181 ACV180:ACV181 SZ180:SZ181 JD180:JD181 WVP180:WVP181 WVP183:WVP186 WLT183:WLT186 WBX183:WBX186 VSB183:VSB186 VIF183:VIF186 UYJ183:UYJ186 UON183:UON186 UER183:UER186 TUV183:TUV186 TKZ183:TKZ186 TBD183:TBD186 SRH183:SRH186 SHL183:SHL186 RXP183:RXP186 RNT183:RNT186 RDX183:RDX186 QUB183:QUB186 QKF183:QKF186 QAJ183:QAJ186 PQN183:PQN186 PGR183:PGR186 OWV183:OWV186 OMZ183:OMZ186 ODD183:ODD186 NTH183:NTH186 NJL183:NJL186 MZP183:MZP186 MPT183:MPT186 MFX183:MFX186 LWB183:LWB186 LMF183:LMF186 LCJ183:LCJ186 KSN183:KSN186 KIR183:KIR186 JYV183:JYV186 JOZ183:JOZ186 JFD183:JFD186 IVH183:IVH186 ILL183:ILL186 IBP183:IBP186 HRT183:HRT186 HHX183:HHX186 GYB183:GYB186 GOF183:GOF186 GEJ183:GEJ186 FUN183:FUN186 FKR183:FKR186 FAV183:FAV186 EQZ183:EQZ186 EHD183:EHD186 DXH183:DXH186 DNL183:DNL186 DDP183:DDP186 CTT183:CTT186 CJX183:CJX186 CAB183:CAB186 BQF183:BQF186 BGJ183:BGJ186 AWN183:AWN186 AMR183:AMR186 ACV183:ACV186 SZ183:SZ186 JD183:JD186 I209:I212 I3:I75">
+      <formula1>CreatedBy</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K42:K83 ACW188:ACW195 I123 AMS188:AMS195 AWO188:AWO195 BGK188:BGK195 BQG188:BQG195 CAC188:CAC195 CJY188:CJY195 CTU188:CTU195 DDQ188:DDQ195 DNM188:DNM195 DXI188:DXI195 EHE188:EHE195 ERA188:ERA195 FAW188:FAW195 FKS188:FKS195 FUO188:FUO195 GEK188:GEK195 GOG188:GOG195 GYC188:GYC195 HHY188:HHY195 HRU188:HRU195 IBQ188:IBQ195 ILM188:ILM195 IVI188:IVI195 JFE188:JFE195 JPA188:JPA195 JYW188:JYW195 KIS188:KIS195 KSO188:KSO195 LCK188:LCK195 LMG188:LMG195 LWC188:LWC195 MFY188:MFY195 MPU188:MPU195 MZQ188:MZQ195 NJM188:NJM195 NTI188:NTI195 ODE188:ODE195 ONA188:ONA195 OWW188:OWW195 PGS188:PGS195 PQO188:PQO195 QAK188:QAK195 QKG188:QKG195 QUC188:QUC195 RDY188:RDY195 RNU188:RNU195 RXQ188:RXQ195 SHM188:SHM195 SRI188:SRI195 TBE188:TBE195 TLA188:TLA195 TUW188:TUW195 UES188:UES195 UOO188:UOO195 UYK188:UYK195 VSC188:VSC195 VIG188:VIG195 WBY188:WBY195 WLU188:WLU195 WVQ188:WVQ195 JE188:JE195 J101:J125 F83 J142:J144 WLU197:WLU212 WVQ197:WVQ212 JE197:JE212 TA197:TA212 ACW197:ACW212 AMS197:AMS212 AWO197:AWO212 BGK197:BGK212 BQG197:BQG212 CAC197:CAC212 CJY197:CJY212 CTU197:CTU212 DDQ197:DDQ212 DNM197:DNM212 DXI197:DXI212 EHE197:EHE212 ERA197:ERA212 FAW197:FAW212 FKS197:FKS212 FUO197:FUO212 GEK197:GEK212 GOG197:GOG212 GYC197:GYC212 HHY197:HHY212 HRU197:HRU212 IBQ197:IBQ212 ILM197:ILM212 IVI197:IVI212 JFE197:JFE212 JPA197:JPA212 JYW197:JYW212 KIS197:KIS212 KSO197:KSO212 LCK197:LCK212 LMG197:LMG212 LWC197:LWC212 MFY197:MFY212 MPU197:MPU212 MZQ197:MZQ212 NJM197:NJM212 NTI197:NTI212 ODE197:ODE212 ONA197:ONA212 OWW197:OWW212 PGS197:PGS212 PQO197:PQO212 QAK197:QAK212 QKG197:QKG212 QUC197:QUC212 RDY197:RDY212 RNU197:RNU212 RXQ197:RXQ212 SHM197:SHM212 SRI197:SRI212 TBE197:TBE212 TLA197:TLA212 TUW197:TUW212 UES197:UES212 UOO197:UOO212 UYK197:UYK212 VIG197:VIG212 VSC197:VSC212 WBY197:WBY212 J202:J212 TA188:TA195 H83 WVQ180:WVQ181 WLU180:WLU181 WBY180:WBY181 VIG180:VIG181 VSC180:VSC181 UYK180:UYK181 UOO180:UOO181 UES180:UES181 TUW180:TUW181 TLA180:TLA181 TBE180:TBE181 SRI180:SRI181 SHM180:SHM181 RXQ180:RXQ181 RNU180:RNU181 RDY180:RDY181 QUC180:QUC181 QKG180:QKG181 QAK180:QAK181 PQO180:PQO181 PGS180:PGS181 OWW180:OWW181 ONA180:ONA181 ODE180:ODE181 NTI180:NTI181 NJM180:NJM181 MZQ180:MZQ181 MPU180:MPU181 MFY180:MFY181 LWC180:LWC181 LMG180:LMG181 LCK180:LCK181 KSO180:KSO181 KIS180:KIS181 JYW180:JYW181 JPA180:JPA181 JFE180:JFE181 IVI180:IVI181 ILM180:ILM181 IBQ180:IBQ181 HRU180:HRU181 HHY180:HHY181 GYC180:GYC181 GOG180:GOG181 GEK180:GEK181 FUO180:FUO181 FKS180:FKS181 FAW180:FAW181 ERA180:ERA181 EHE180:EHE181 DXI180:DXI181 DNM180:DNM181 DDQ180:DDQ181 CTU180:CTU181 CJY180:CJY181 CAC180:CAC181 BQG180:BQG181 BGK180:BGK181 AWO180:AWO181 AMS180:AMS181 ACW180:ACW181 TA180:TA181 JE180:JE181 JE183:JE186 WVQ183:WVQ186 WLU183:WLU186 WBY183:WBY186 VIG183:VIG186 VSC183:VSC186 UYK183:UYK186 UOO183:UOO186 UES183:UES186 TUW183:TUW186 TLA183:TLA186 TBE183:TBE186 SRI183:SRI186 SHM183:SHM186 RXQ183:RXQ186 RNU183:RNU186 RDY183:RDY186 QUC183:QUC186 QKG183:QKG186 QAK183:QAK186 PQO183:PQO186 PGS183:PGS186 OWW183:OWW186 ONA183:ONA186 ODE183:ODE186 NTI183:NTI186 NJM183:NJM186 MZQ183:MZQ186 MPU183:MPU186 MFY183:MFY186 LWC183:LWC186 LMG183:LMG186 LCK183:LCK186 KSO183:KSO186 KIS183:KIS186 JYW183:JYW186 JPA183:JPA186 JFE183:JFE186 IVI183:IVI186 ILM183:ILM186 IBQ183:IBQ186 HRU183:HRU186 HHY183:HHY186 GYC183:GYC186 GOG183:GOG186 GEK183:GEK186 FUO183:FUO186 FKS183:FKS186 FAW183:FAW186 ERA183:ERA186 EHE183:EHE186 DXI183:DXI186 DNM183:DNM186 DDQ183:DDQ186 CTU183:CTU186 CJY183:CJY186 CAC183:CAC186 BQG183:BQG186 BGK183:BGK186 AWO183:AWO186 AMS183:AMS186 ACW183:ACW186 TA183:TA186 J199:K199 K210:K211 J131:J132 J139 J77:J82 K33:K40 K3:K31 J33:J75">
+      <formula1>TestType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B157:B174 B176:B178 ACO188:ACO195 B77:B82 AMK188:AMK195 AWG188:AWG195 BGC188:BGC195 BPY188:BPY195 BZU188:BZU195 CJQ188:CJQ195 CTM188:CTM195 DDI188:DDI195 DNE188:DNE195 DXA188:DXA195 EGW188:EGW195 EQS188:EQS195 FAO188:FAO195 FKK188:FKK195 FUG188:FUG195 GEC188:GEC195 GNY188:GNY195 GXU188:GXU195 HHQ188:HHQ195 HRM188:HRM195 IBI188:IBI195 ILE188:ILE195 IVA188:IVA195 JEW188:JEW195 JOS188:JOS195 JYO188:JYO195 KIK188:KIK195 KSG188:KSG195 LCC188:LCC195 LLY188:LLY195 LVU188:LVU195 MFQ188:MFQ195 MPM188:MPM195 MZI188:MZI195 NJE188:NJE195 NTA188:NTA195 OCW188:OCW195 OMS188:OMS195 OWO188:OWO195 PGK188:PGK195 PQG188:PQG195 QAC188:QAC195 QJY188:QJY195 QTU188:QTU195 RDQ188:RDQ195 RNM188:RNM195 RXI188:RXI195 SHE188:SHE195 SRA188:SRA195 TAW188:TAW195 TKS188:TKS195 TUO188:TUO195 UEK188:UEK195 UOG188:UOG195 UYC188:UYC195 VHY188:VHY195 VRU188:VRU195 WBQ188:WBQ195 WVI188:WVI195 WLM188:WLM195 SS188:SS195 B101:B125 WVI197:WVI212 WLM197:WLM212 IW197:IW212 SS197:SS212 ACO197:ACO212 AMK197:AMK212 AWG197:AWG212 BGC197:BGC212 BPY197:BPY212 BZU197:BZU212 CJQ197:CJQ212 CTM197:CTM212 DDI197:DDI212 DNE197:DNE212 DXA197:DXA212 EGW197:EGW212 EQS197:EQS212 FAO197:FAO212 FKK197:FKK212 FUG197:FUG212 GEC197:GEC212 GNY197:GNY212 GXU197:GXU212 HHQ197:HHQ212 HRM197:HRM212 IBI197:IBI212 ILE197:ILE212 IVA197:IVA212 JEW197:JEW212 JOS197:JOS212 JYO197:JYO212 KIK197:KIK212 KSG197:KSG212 LCC197:LCC212 LLY197:LLY212 LVU197:LVU212 MFQ197:MFQ212 MPM197:MPM212 MZI197:MZI212 NJE197:NJE212 NTA197:NTA212 OCW197:OCW212 OMS197:OMS212 OWO197:OWO212 PGK197:PGK212 PQG197:PQG212 QAC197:QAC212 QJY197:QJY212 QTU197:QTU212 RDQ197:RDQ212 RNM197:RNM212 RXI197:RXI212 SHE197:SHE212 SRA197:SRA212 TAW197:TAW212 TKS197:TKS212 TUO197:TUO212 UEK197:UEK212 UOG197:UOG212 UYC197:UYC212 VHY197:VHY212 VRU197:VRU212 WBQ197:WBQ212 IW188:IW195 WLM180:WLM181 WVI180:WVI181 WBQ180:WBQ181 VRU180:VRU181 VHY180:VHY181 UYC180:UYC181 UOG180:UOG181 UEK180:UEK181 TUO180:TUO181 TKS180:TKS181 TAW180:TAW181 SRA180:SRA181 SHE180:SHE181 RXI180:RXI181 RNM180:RNM181 RDQ180:RDQ181 QTU180:QTU181 QJY180:QJY181 QAC180:QAC181 PQG180:PQG181 PGK180:PGK181 OWO180:OWO181 OMS180:OMS181 OCW180:OCW181 NTA180:NTA181 NJE180:NJE181 MZI180:MZI181 MPM180:MPM181 MFQ180:MFQ181 LVU180:LVU181 LLY180:LLY181 LCC180:LCC181 KSG180:KSG181 KIK180:KIK181 JYO180:JYO181 JOS180:JOS181 JEW180:JEW181 IVA180:IVA181 ILE180:ILE181 IBI180:IBI181 HRM180:HRM181 HHQ180:HHQ181 GXU180:GXU181 GNY180:GNY181 GEC180:GEC181 FUG180:FUG181 FKK180:FKK181 FAO180:FAO181 EQS180:EQS181 EGW180:EGW181 DXA180:DXA181 DNE180:DNE181 DDI180:DDI181 CTM180:CTM181 CJQ180:CJQ181 BZU180:BZU181 BPY180:BPY181 BGC180:BGC181 AWG180:AWG181 AMK180:AMK181 ACO180:ACO181 SS180:SS181 IW180:IW181 IW183:IW186 B180:B195 WLM183:WLM186 WVI183:WVI186 WBQ183:WBQ186 VRU183:VRU186 VHY183:VHY186 UYC183:UYC186 UOG183:UOG186 UEK183:UEK186 TUO183:TUO186 TKS183:TKS186 TAW183:TAW186 SRA183:SRA186 SHE183:SHE186 RXI183:RXI186 RNM183:RNM186 RDQ183:RDQ186 QTU183:QTU186 QJY183:QJY186 QAC183:QAC186 PQG183:PQG186 PGK183:PGK186 OWO183:OWO186 OMS183:OMS186 OCW183:OCW186 NTA183:NTA186 NJE183:NJE186 MZI183:MZI186 MPM183:MPM186 MFQ183:MFQ186 LVU183:LVU186 LLY183:LLY186 LCC183:LCC186 KSG183:KSG186 KIK183:KIK186 JYO183:JYO186 JOS183:JOS186 JEW183:JEW186 IVA183:IVA186 ILE183:ILE186 IBI183:IBI186 HRM183:HRM186 HHQ183:HHQ186 GXU183:GXU186 GNY183:GNY186 GEC183:GEC186 FUG183:FUG186 FKK183:FKK186 FAO183:FAO186 EQS183:EQS186 EGW183:EGW186 DXA183:DXA186 DNE183:DNE186 DDI183:DDI186 CTM183:CTM186 CJQ183:CJQ186 BZU183:BZU186 BPY183:BPY186 BGC183:BGC186 AWG183:AWG186 AMK183:AMK186 ACO183:ACO186 SS183:SS186 B3:B75 B197:B212">
+      <formula1>Priority</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
